--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Provincienaam</t>
   </si>
@@ -22,6 +22,21 @@
     <t>Gemeentenaam</t>
   </si>
   <si>
+    <t>27-02-2020</t>
+  </si>
+  <si>
+    <t>28-02-2020</t>
+  </si>
+  <si>
+    <t>29-02-2020</t>
+  </si>
+  <si>
+    <t>01-03-2020</t>
+  </si>
+  <si>
+    <t>02-03-2020</t>
+  </si>
+  <si>
     <t>03-03-2020</t>
   </si>
   <si>
@@ -128,6 +143,9 @@
   </si>
   <si>
     <t>Gooise Meren</t>
+  </si>
+  <si>
+    <t>Gorinchem</t>
   </si>
   <si>
     <t>Haarlem</t>
@@ -581,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,16 +624,31 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -627,18 +660,33 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -650,64 +698,109 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1959</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -716,21 +809,36 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -742,18 +850,33 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1954</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -765,18 +888,33 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>753</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -785,21 +923,36 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -811,64 +964,109 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>376</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -877,21 +1075,36 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>758</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -903,18 +1116,33 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1876</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -926,41 +1154,71 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -969,21 +1227,36 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -992,27 +1265,42 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>503</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1020,22 +1308,37 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1043,16 +1346,31 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>766</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1061,44 +1379,74 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>772</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="L22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>1652</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1107,389 +1455,644 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
       <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>512</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>523</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>794</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>392</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="L30">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>523</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>1621</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>1705</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>809</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>794</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>1963</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>321</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>1621</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>1705</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>809</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="K33">
         <v>5</v>
       </c>
-      <c r="G32">
+      <c r="L33">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
         <v>935</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>824</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>828</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <v>268</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1">
-        <v>824</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>828</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <v>1926</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1">
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
         <v>274</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
         <v>599</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1">
-        <v>965</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1501,397 +2104,705 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
+        <v>965</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
         <v>845</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>1883</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>342</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>855</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>856</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>344</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1">
-        <v>1883</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>1581</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>866</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>867</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>668</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>614</v>
+      </c>
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>342</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>1904</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>855</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>856</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>344</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>1581</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>866</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>867</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1">
-        <v>668</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>614</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1">
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
         <v>352</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1">
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
         <v>632</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1">
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
         <v>297</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>1</v>
       </c>
     </row>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>Provincienaam</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>08-03-2020</t>
+  </si>
+  <si>
+    <t>gemeente_id</t>
   </si>
   <si>
     <t>Zuid-Holland</t>
@@ -717,6 +720,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,10 +768,10 @@
         <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -806,10 +812,10 @@
         <v>796</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -850,10 +856,10 @@
         <v>613</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -894,10 +900,10 @@
         <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -938,10 +944,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -982,10 +988,10 @@
         <v>484</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1026,10 +1032,10 @@
         <v>1959</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1070,10 +1076,10 @@
         <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1114,10 +1120,10 @@
         <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1158,10 +1164,10 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1202,10 +1208,10 @@
         <v>1954</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1246,10 +1252,10 @@
         <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1290,10 +1296,10 @@
         <v>1721</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1334,10 +1340,10 @@
         <v>753</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1378,10 +1384,10 @@
         <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1422,10 +1428,10 @@
         <v>375</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1466,10 +1472,10 @@
         <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1510,10 +1516,10 @@
         <v>377</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1554,10 +1560,10 @@
         <v>755</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1598,10 +1604,10 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1642,10 +1648,10 @@
         <v>758</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1686,10 +1692,10 @@
         <v>1876</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1730,10 +1736,10 @@
         <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1774,10 +1780,10 @@
         <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1818,10 +1824,10 @@
         <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1862,10 +1868,10 @@
         <v>503</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1906,10 +1912,10 @@
         <v>762</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1950,10 +1956,10 @@
         <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1994,10 +2000,10 @@
         <v>1774</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2038,10 +2044,10 @@
         <v>766</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2082,10 +2088,10 @@
         <v>772</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2126,10 +2132,10 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2170,10 +2176,10 @@
         <v>1652</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2214,10 +2220,10 @@
         <v>785</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2258,10 +2264,10 @@
         <v>1942</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2302,10 +2308,10 @@
         <v>512</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2346,10 +2352,10 @@
         <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2390,10 +2396,10 @@
         <v>523</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2434,10 +2440,10 @@
         <v>397</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2478,10 +2484,10 @@
         <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2522,10 +2528,10 @@
         <v>794</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2566,10 +2572,10 @@
         <v>797</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2610,10 +2616,10 @@
         <v>1963</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2654,10 +2660,10 @@
         <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2698,10 +2704,10 @@
         <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2742,10 +2748,10 @@
         <v>353</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2786,10 +2792,10 @@
         <v>1931</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2830,10 +2836,10 @@
         <v>1685</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2874,10 +2880,10 @@
         <v>415</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2918,10 +2924,10 @@
         <v>1621</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2962,10 +2968,10 @@
         <v>1916</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3006,10 +3012,10 @@
         <v>1705</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3050,10 +3056,10 @@
         <v>809</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3094,10 +3100,10 @@
         <v>263</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3138,10 +3144,10 @@
         <v>935</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3182,10 +3188,10 @@
         <v>1948</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3226,10 +3232,10 @@
         <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3270,10 +3276,10 @@
         <v>579</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3314,10 +3320,10 @@
         <v>824</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3358,10 +3364,10 @@
         <v>828</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3402,10 +3408,10 @@
         <v>1926</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3446,10 +3452,10 @@
         <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3490,10 +3496,10 @@
         <v>597</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3534,10 +3540,10 @@
         <v>957</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3578,10 +3584,10 @@
         <v>599</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3622,10 +3628,10 @@
         <v>1676</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3666,10 +3672,10 @@
         <v>965</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3710,10 +3716,10 @@
         <v>845</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3754,10 +3760,10 @@
         <v>1883</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3798,10 +3804,10 @@
         <v>342</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3842,10 +3848,10 @@
         <v>1904</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3886,10 +3892,10 @@
         <v>855</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3930,10 +3936,10 @@
         <v>856</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3974,10 +3980,10 @@
         <v>344</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4018,10 +4024,10 @@
         <v>1581</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4062,10 +4068,10 @@
         <v>1961</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4106,10 +4112,10 @@
         <v>866</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4150,10 +4156,10 @@
         <v>867</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4194,10 +4200,10 @@
         <v>852</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4238,10 +4244,10 @@
         <v>1960</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4282,10 +4288,10 @@
         <v>668</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4326,10 +4332,10 @@
         <v>614</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4370,10 +4376,10 @@
         <v>296</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4414,10 +4420,10 @@
         <v>352</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4458,10 +4464,10 @@
         <v>632</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4502,10 +4508,10 @@
         <v>479</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4546,10 +4552,10 @@
         <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4590,10 +4596,10 @@
         <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4634,10 +4640,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4678,10 +4684,10 @@
         <v>879</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4722,10 +4728,10 @@
         <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D92">
         <v>0</v>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="155">
   <si>
     <t>Provincienaam</t>
   </si>
@@ -437,6 +437,48 @@
   </si>
   <si>
     <t>Zwolle</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
   </si>
 </sst>
 </file>
@@ -896,8 +938,8 @@
       <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>3</v>
+      <c r="P2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -946,8 +988,8 @@
       <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>4</v>
+      <c r="P3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -996,8 +1038,8 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>2</v>
+      <c r="P4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1046,8 +1088,8 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5">
-        <v>1</v>
+      <c r="P5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1096,8 +1138,8 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>1</v>
+      <c r="P6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1146,8 +1188,8 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>1</v>
+      <c r="P7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1196,8 +1238,8 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>1</v>
+      <c r="P8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1246,8 +1288,8 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>1</v>
+      <c r="P9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1296,8 +1338,8 @@
       <c r="O10">
         <v>4</v>
       </c>
-      <c r="P10">
-        <v>4</v>
+      <c r="P10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1346,8 +1388,8 @@
       <c r="O11">
         <v>2</v>
       </c>
-      <c r="P11">
-        <v>2</v>
+      <c r="P11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1396,8 +1438,8 @@
       <c r="O12">
         <v>4</v>
       </c>
-      <c r="P12">
-        <v>8</v>
+      <c r="P12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1446,8 +1488,8 @@
       <c r="O13">
         <v>2</v>
       </c>
-      <c r="P13">
-        <v>2</v>
+      <c r="P13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1496,8 +1538,8 @@
       <c r="O14">
         <v>4</v>
       </c>
-      <c r="P14">
-        <v>5</v>
+      <c r="P14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1546,8 +1588,8 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>1</v>
+      <c r="P15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1596,8 +1638,8 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16">
-        <v>1</v>
+      <c r="P16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1646,8 +1688,8 @@
       <c r="O17">
         <v>2</v>
       </c>
-      <c r="P17">
-        <v>2</v>
+      <c r="P17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1696,8 +1738,8 @@
       <c r="O18">
         <v>2</v>
       </c>
-      <c r="P18">
-        <v>2</v>
+      <c r="P18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1746,8 +1788,8 @@
       <c r="O19">
         <v>3</v>
       </c>
-      <c r="P19">
-        <v>3</v>
+      <c r="P19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1796,8 +1838,8 @@
       <c r="O20">
         <v>4</v>
       </c>
-      <c r="P20">
-        <v>4</v>
+      <c r="P20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1846,8 +1888,8 @@
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="P21">
-        <v>1</v>
+      <c r="P21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1896,8 +1938,8 @@
       <c r="O22">
         <v>1</v>
       </c>
-      <c r="P22">
-        <v>1</v>
+      <c r="P22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1946,8 +1988,8 @@
       <c r="O23">
         <v>1</v>
       </c>
-      <c r="P23">
-        <v>2</v>
+      <c r="P23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1996,8 +2038,8 @@
       <c r="O24">
         <v>3</v>
       </c>
-      <c r="P24">
-        <v>3</v>
+      <c r="P24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2046,8 +2088,8 @@
       <c r="O25">
         <v>19</v>
       </c>
-      <c r="P25">
-        <v>27</v>
+      <c r="P25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2096,8 +2138,8 @@
       <c r="O26">
         <v>2</v>
       </c>
-      <c r="P26">
-        <v>2</v>
+      <c r="P26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2146,8 +2188,8 @@
       <c r="O27">
         <v>9</v>
       </c>
-      <c r="P27">
-        <v>11</v>
+      <c r="P27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2196,8 +2238,8 @@
       <c r="O28">
         <v>1</v>
       </c>
-      <c r="P28">
-        <v>1</v>
+      <c r="P28" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2246,8 +2288,8 @@
       <c r="O29">
         <v>6</v>
       </c>
-      <c r="P29">
-        <v>6</v>
+      <c r="P29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2296,8 +2338,8 @@
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30">
-        <v>1</v>
+      <c r="P30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2346,8 +2388,8 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31">
-        <v>1</v>
+      <c r="P31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2396,8 +2438,8 @@
       <c r="O32">
         <v>2</v>
       </c>
-      <c r="P32">
-        <v>2</v>
+      <c r="P32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2446,8 +2488,8 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="P33">
-        <v>2</v>
+      <c r="P33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2496,8 +2538,8 @@
       <c r="O34">
         <v>3</v>
       </c>
-      <c r="P34">
-        <v>3</v>
+      <c r="P34" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2546,8 +2588,8 @@
       <c r="O35">
         <v>7</v>
       </c>
-      <c r="P35">
-        <v>8</v>
+      <c r="P35" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2596,8 +2638,8 @@
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36">
-        <v>1</v>
+      <c r="P36" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2646,8 +2688,8 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>1</v>
+      <c r="P37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2696,8 +2738,8 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="P38">
-        <v>3</v>
+      <c r="P38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2746,8 +2788,8 @@
       <c r="O39">
         <v>1</v>
       </c>
-      <c r="P39">
-        <v>2</v>
+      <c r="P39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2796,8 +2838,8 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40">
-        <v>1</v>
+      <c r="P40" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2846,8 +2888,8 @@
       <c r="O41">
         <v>4</v>
       </c>
-      <c r="P41">
-        <v>4</v>
+      <c r="P41" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2896,8 +2938,8 @@
       <c r="O42">
         <v>2</v>
       </c>
-      <c r="P42">
-        <v>2</v>
+      <c r="P42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2996,8 +3038,8 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44">
-        <v>1</v>
+      <c r="P44" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3046,8 +3088,8 @@
       <c r="O45">
         <v>2</v>
       </c>
-      <c r="P45">
-        <v>2</v>
+      <c r="P45" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3096,8 +3138,8 @@
       <c r="O46">
         <v>2</v>
       </c>
-      <c r="P46">
-        <v>1</v>
+      <c r="P46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3146,8 +3188,8 @@
       <c r="O47">
         <v>4</v>
       </c>
-      <c r="P47">
-        <v>5</v>
+      <c r="P47" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3196,8 +3238,8 @@
       <c r="O48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>1</v>
+      <c r="P48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3246,8 +3288,8 @@
       <c r="O49">
         <v>2</v>
       </c>
-      <c r="P49">
-        <v>2</v>
+      <c r="P49" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3296,8 +3338,8 @@
       <c r="O50">
         <v>7</v>
       </c>
-      <c r="P50">
-        <v>11</v>
+      <c r="P50" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3346,8 +3388,8 @@
       <c r="O51">
         <v>1</v>
       </c>
-      <c r="P51">
-        <v>1</v>
+      <c r="P51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3396,8 +3438,8 @@
       <c r="O52">
         <v>2</v>
       </c>
-      <c r="P52">
-        <v>2</v>
+      <c r="P52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3446,8 +3488,8 @@
       <c r="O53">
         <v>13</v>
       </c>
-      <c r="P53">
-        <v>13</v>
+      <c r="P53" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3496,8 +3538,8 @@
       <c r="O54">
         <v>1</v>
       </c>
-      <c r="P54">
-        <v>1</v>
+      <c r="P54" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3546,8 +3588,8 @@
       <c r="O55">
         <v>1</v>
       </c>
-      <c r="P55">
-        <v>1</v>
+      <c r="P55" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3596,8 +3638,8 @@
       <c r="O56">
         <v>1</v>
       </c>
-      <c r="P56">
-        <v>1</v>
+      <c r="P56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3646,8 +3688,8 @@
       <c r="O57">
         <v>2</v>
       </c>
-      <c r="P57">
-        <v>1</v>
+      <c r="P57" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3746,8 +3788,8 @@
       <c r="O59">
         <v>3</v>
       </c>
-      <c r="P59">
-        <v>4</v>
+      <c r="P59" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3796,8 +3838,8 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60">
-        <v>1</v>
+      <c r="P60" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3846,8 +3888,8 @@
       <c r="O61">
         <v>1</v>
       </c>
-      <c r="P61">
-        <v>2</v>
+      <c r="P61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3896,8 +3938,8 @@
       <c r="O62">
         <v>1</v>
       </c>
-      <c r="P62">
-        <v>2</v>
+      <c r="P62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3946,8 +3988,8 @@
       <c r="O63">
         <v>2</v>
       </c>
-      <c r="P63">
-        <v>2</v>
+      <c r="P63" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3996,8 +4038,8 @@
       <c r="O64">
         <v>7</v>
       </c>
-      <c r="P64">
-        <v>7</v>
+      <c r="P64" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4046,8 +4088,8 @@
       <c r="O65">
         <v>1</v>
       </c>
-      <c r="P65">
-        <v>1</v>
+      <c r="P65" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4096,8 +4138,8 @@
       <c r="O66">
         <v>6</v>
       </c>
-      <c r="P66">
-        <v>7</v>
+      <c r="P66" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4146,8 +4188,8 @@
       <c r="O67">
         <v>10</v>
       </c>
-      <c r="P67">
-        <v>11</v>
+      <c r="P67" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4196,8 +4238,8 @@
       <c r="O68">
         <v>1</v>
       </c>
-      <c r="P68">
-        <v>1</v>
+      <c r="P68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4246,8 +4288,8 @@
       <c r="O69">
         <v>3</v>
       </c>
-      <c r="P69">
-        <v>3</v>
+      <c r="P69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4296,8 +4338,8 @@
       <c r="O70">
         <v>2</v>
       </c>
-      <c r="P70">
-        <v>2</v>
+      <c r="P70" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4346,8 +4388,8 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71">
-        <v>1</v>
+      <c r="P71" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4396,8 +4438,8 @@
       <c r="O72">
         <v>1</v>
       </c>
-      <c r="P72">
-        <v>1</v>
+      <c r="P72" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4446,8 +4488,8 @@
       <c r="O73">
         <v>3</v>
       </c>
-      <c r="P73">
-        <v>3</v>
+      <c r="P73" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4496,8 +4538,8 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74">
-        <v>2</v>
+      <c r="P74" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4546,8 +4588,8 @@
       <c r="O75">
         <v>1</v>
       </c>
-      <c r="P75">
-        <v>1</v>
+      <c r="P75" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4596,8 +4638,8 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>1</v>
+      <c r="P76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4646,8 +4688,8 @@
       <c r="O77">
         <v>2</v>
       </c>
-      <c r="P77">
-        <v>4</v>
+      <c r="P77" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4696,8 +4738,8 @@
       <c r="O78">
         <v>5</v>
       </c>
-      <c r="P78">
-        <v>5</v>
+      <c r="P78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4746,8 +4788,8 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79">
-        <v>1</v>
+      <c r="P79" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4796,8 +4838,8 @@
       <c r="O80">
         <v>1</v>
       </c>
-      <c r="P80">
-        <v>1</v>
+      <c r="P80" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4846,8 +4888,8 @@
       <c r="O81">
         <v>1</v>
       </c>
-      <c r="P81">
-        <v>1</v>
+      <c r="P81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4896,8 +4938,8 @@
       <c r="O82">
         <v>14</v>
       </c>
-      <c r="P82">
-        <v>15</v>
+      <c r="P82" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4946,8 +4988,8 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83">
-        <v>1</v>
+      <c r="P83" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4996,8 +5038,8 @@
       <c r="O84">
         <v>1</v>
       </c>
-      <c r="P84">
-        <v>2</v>
+      <c r="P84" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5046,8 +5088,8 @@
       <c r="O85">
         <v>2</v>
       </c>
-      <c r="P85">
-        <v>2</v>
+      <c r="P85" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5096,8 +5138,8 @@
       <c r="O86">
         <v>5</v>
       </c>
-      <c r="P86">
-        <v>5</v>
+      <c r="P86" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5146,8 +5188,8 @@
       <c r="O87">
         <v>8</v>
       </c>
-      <c r="P87">
-        <v>13</v>
+      <c r="P87" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5196,8 +5238,8 @@
       <c r="O88">
         <v>7</v>
       </c>
-      <c r="P88">
-        <v>8</v>
+      <c r="P88" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5246,8 +5288,8 @@
       <c r="O89">
         <v>5</v>
       </c>
-      <c r="P89">
-        <v>5</v>
+      <c r="P89" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5296,8 +5338,8 @@
       <c r="O90">
         <v>1</v>
       </c>
-      <c r="P90">
-        <v>1</v>
+      <c r="P90" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5346,8 +5388,8 @@
       <c r="O91">
         <v>27</v>
       </c>
-      <c r="P91">
-        <v>29</v>
+      <c r="P91" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5396,8 +5438,8 @@
       <c r="O92">
         <v>1</v>
       </c>
-      <c r="P92">
-        <v>1</v>
+      <c r="P92" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5446,8 +5488,8 @@
       <c r="O93">
         <v>12</v>
       </c>
-      <c r="P93">
-        <v>13</v>
+      <c r="P93" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5496,8 +5538,8 @@
       <c r="O94">
         <v>13</v>
       </c>
-      <c r="P94">
-        <v>14</v>
+      <c r="P94" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5546,8 +5588,8 @@
       <c r="O95">
         <v>2</v>
       </c>
-      <c r="P95">
-        <v>2</v>
+      <c r="P95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5596,8 +5638,8 @@
       <c r="O96">
         <v>1</v>
       </c>
-      <c r="P96">
-        <v>1</v>
+      <c r="P96" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5646,8 +5688,8 @@
       <c r="O97">
         <v>1</v>
       </c>
-      <c r="P97">
-        <v>1</v>
+      <c r="P97" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5696,8 +5738,8 @@
       <c r="O98">
         <v>1</v>
       </c>
-      <c r="P98">
-        <v>1</v>
+      <c r="P98" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5746,8 +5788,8 @@
       <c r="O99">
         <v>1</v>
       </c>
-      <c r="P99">
-        <v>1</v>
+      <c r="P99" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5796,8 +5838,8 @@
       <c r="O100">
         <v>1</v>
       </c>
-      <c r="P100">
-        <v>1</v>
+      <c r="P100" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5846,8 +5888,8 @@
       <c r="O101">
         <v>1</v>
       </c>
-      <c r="P101">
-        <v>1</v>
+      <c r="P101" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5896,8 +5938,8 @@
       <c r="O102">
         <v>5</v>
       </c>
-      <c r="P102">
-        <v>5</v>
+      <c r="P102" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5946,8 +5988,8 @@
       <c r="O103">
         <v>0</v>
       </c>
-      <c r="P103">
-        <v>1</v>
+      <c r="P103" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5996,8 +6038,8 @@
       <c r="O104">
         <v>1</v>
       </c>
-      <c r="P104">
-        <v>1</v>
+      <c r="P104" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6046,8 +6088,8 @@
       <c r="O105">
         <v>2</v>
       </c>
-      <c r="P105">
-        <v>2</v>
+      <c r="P105" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6096,8 +6138,8 @@
       <c r="O106">
         <v>1</v>
       </c>
-      <c r="P106">
-        <v>1</v>
+      <c r="P106" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6146,8 +6188,8 @@
       <c r="O107">
         <v>1</v>
       </c>
-      <c r="P107">
-        <v>1</v>
+      <c r="P107" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6196,8 +6238,8 @@
       <c r="O108">
         <v>1</v>
       </c>
-      <c r="P108">
-        <v>1</v>
+      <c r="P108" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6246,8 +6288,8 @@
       <c r="O109">
         <v>1</v>
       </c>
-      <c r="P109">
-        <v>1</v>
+      <c r="P109" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6296,8 +6338,8 @@
       <c r="O110">
         <v>2</v>
       </c>
-      <c r="P110">
-        <v>2</v>
+      <c r="P110" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6346,8 +6388,8 @@
       <c r="O111">
         <v>2</v>
       </c>
-      <c r="P111">
-        <v>2</v>
+      <c r="P111" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6396,8 +6438,8 @@
       <c r="O112">
         <v>1</v>
       </c>
-      <c r="P112">
-        <v>1</v>
+      <c r="P112" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6446,8 +6488,8 @@
       <c r="O113">
         <v>1</v>
       </c>
-      <c r="P113">
-        <v>1</v>
+      <c r="P113" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6496,8 +6538,8 @@
       <c r="O114">
         <v>1</v>
       </c>
-      <c r="P114">
-        <v>2</v>
+      <c r="P114" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6546,8 +6588,8 @@
       <c r="O115">
         <v>1</v>
       </c>
-      <c r="P115">
-        <v>1</v>
+      <c r="P115" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6596,8 +6638,8 @@
       <c r="O116">
         <v>1</v>
       </c>
-      <c r="P116">
-        <v>1</v>
+      <c r="P116" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="383">
   <si>
     <t>Provinciecode</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>10-03-2020</t>
+  </si>
+  <si>
+    <t>11-03-2020</t>
   </si>
   <si>
     <t>gemeente_id</t>
@@ -1517,15 +1520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q356"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1575,8 +1578,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>518</v>
       </c>
@@ -1584,10 +1590,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1628,8 +1634,11 @@
       <c r="Q2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>796</v>
       </c>
@@ -1637,10 +1646,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1681,8 +1690,11 @@
       <c r="Q3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>1680</v>
       </c>
@@ -1690,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1734,8 +1746,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>358</v>
       </c>
@@ -1743,10 +1758,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1787,8 +1802,11 @@
       <c r="Q5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>197</v>
       </c>
@@ -1796,10 +1814,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1840,8 +1858,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>59</v>
       </c>
@@ -1849,10 +1870,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1893,8 +1914,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>482</v>
       </c>
@@ -1902,10 +1926,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1946,8 +1970,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>613</v>
       </c>
@@ -1955,10 +1982,10 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1999,8 +2026,11 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>361</v>
       </c>
@@ -2008,10 +2038,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2052,8 +2082,11 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>141</v>
       </c>
@@ -2061,10 +2094,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2105,8 +2138,11 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -2114,10 +2150,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2158,8 +2194,11 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>484</v>
       </c>
@@ -2167,10 +2206,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2211,8 +2250,11 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>1723</v>
       </c>
@@ -2220,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2264,8 +2306,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>1959</v>
       </c>
@@ -2273,10 +2318,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2317,8 +2362,11 @@
       <c r="Q15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -2326,10 +2374,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2370,8 +2418,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>307</v>
       </c>
@@ -2379,10 +2430,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2423,8 +2474,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>362</v>
       </c>
@@ -2432,10 +2486,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2476,8 +2530,11 @@
       <c r="Q18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>363</v>
       </c>
@@ -2485,10 +2542,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2529,8 +2586,11 @@
       <c r="Q19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -2538,10 +2598,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2582,8 +2642,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -2591,10 +2654,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2635,8 +2698,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -2644,10 +2710,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2688,8 +2754,11 @@
       <c r="Q22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>106</v>
       </c>
@@ -2697,10 +2766,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2741,8 +2810,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>743</v>
       </c>
@@ -2750,10 +2822,10 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2794,8 +2866,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>744</v>
       </c>
@@ -2803,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2847,8 +2922,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>308</v>
       </c>
@@ -2856,10 +2934,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2900,8 +2978,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>489</v>
       </c>
@@ -2909,10 +2990,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2953,8 +3034,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>203</v>
       </c>
@@ -2962,10 +3046,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3006,8 +3090,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>888</v>
       </c>
@@ -3015,10 +3102,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3059,8 +3146,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>1954</v>
       </c>
@@ -3068,10 +3158,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3112,8 +3202,11 @@
       <c r="Q30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>370</v>
       </c>
@@ -3121,10 +3214,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3165,8 +3258,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>889</v>
       </c>
@@ -3174,10 +3270,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3218,8 +3314,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>1945</v>
       </c>
@@ -3227,10 +3326,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3271,8 +3370,11 @@
       <c r="Q33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>1724</v>
       </c>
@@ -3280,10 +3382,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3324,8 +3426,11 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>893</v>
       </c>
@@ -3333,10 +3438,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3377,8 +3482,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>373</v>
       </c>
@@ -3386,10 +3494,10 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3430,8 +3538,11 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>748</v>
       </c>
@@ -3439,10 +3550,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3483,8 +3594,11 @@
       <c r="Q37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>1859</v>
       </c>
@@ -3492,10 +3606,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3536,8 +3650,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>1721</v>
       </c>
@@ -3545,10 +3662,10 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3589,8 +3706,11 @@
       <c r="Q39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>753</v>
       </c>
@@ -3598,10 +3718,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3642,8 +3762,11 @@
       <c r="Q40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>209</v>
       </c>
@@ -3651,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3695,8 +3818,11 @@
       <c r="Q41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>375</v>
       </c>
@@ -3704,10 +3830,10 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3748,8 +3874,11 @@
       <c r="Q42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>1728</v>
       </c>
@@ -3757,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3801,8 +3930,11 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>376</v>
       </c>
@@ -3810,10 +3942,10 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3854,8 +3986,11 @@
       <c r="Q44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>377</v>
       </c>
@@ -3863,10 +3998,10 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3907,8 +4042,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>1901</v>
       </c>
@@ -3916,10 +4054,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3960,8 +4098,11 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>755</v>
       </c>
@@ -3969,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4013,8 +4154,11 @@
       <c r="Q47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>1681</v>
       </c>
@@ -4022,10 +4166,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4066,8 +4210,11 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>147</v>
       </c>
@@ -4075,10 +4222,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4119,8 +4266,11 @@
       <c r="Q49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>654</v>
       </c>
@@ -4128,10 +4278,10 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4172,8 +4322,11 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>756</v>
       </c>
@@ -4181,10 +4334,10 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4225,8 +4378,11 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>757</v>
       </c>
@@ -4234,10 +4390,10 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4278,8 +4434,11 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>758</v>
       </c>
@@ -4287,10 +4446,10 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4331,8 +4490,11 @@
       <c r="Q53">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>501</v>
       </c>
@@ -4340,10 +4502,10 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4384,8 +4546,11 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>1876</v>
       </c>
@@ -4393,10 +4558,10 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4437,8 +4602,11 @@
       <c r="Q55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>213</v>
       </c>
@@ -4446,10 +4614,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4490,8 +4658,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>899</v>
       </c>
@@ -4499,10 +4670,10 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4543,8 +4714,11 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>312</v>
       </c>
@@ -4552,10 +4726,10 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4596,8 +4770,11 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>313</v>
       </c>
@@ -4605,10 +4782,10 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4649,8 +4826,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>214</v>
       </c>
@@ -4658,10 +4838,10 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4702,8 +4882,11 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>502</v>
       </c>
@@ -4711,10 +4894,10 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4755,8 +4938,11 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>383</v>
       </c>
@@ -4764,10 +4950,10 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4808,8 +4994,11 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>109</v>
       </c>
@@ -4817,10 +5006,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4861,8 +5050,11 @@
       <c r="Q63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>1706</v>
       </c>
@@ -4870,10 +5062,10 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4914,8 +5106,11 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>1684</v>
       </c>
@@ -4923,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4967,8 +5162,11 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>216</v>
       </c>
@@ -4976,10 +5174,10 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5020,8 +5218,11 @@
       <c r="Q66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>148</v>
       </c>
@@ -5029,10 +5230,10 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5073,8 +5274,11 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>1891</v>
       </c>
@@ -5082,10 +5286,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5126,8 +5330,11 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>310</v>
       </c>
@@ -5135,10 +5342,10 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5179,8 +5386,11 @@
       <c r="Q69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>1940</v>
       </c>
@@ -5188,10 +5398,10 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5232,8 +5442,11 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>736</v>
       </c>
@@ -5241,10 +5454,10 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5285,8 +5498,11 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>1690</v>
       </c>
@@ -5294,10 +5510,10 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5338,8 +5554,11 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>503</v>
       </c>
@@ -5347,10 +5566,10 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5391,8 +5610,11 @@
       <c r="Q73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -5400,10 +5622,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5444,8 +5666,11 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>400</v>
       </c>
@@ -5453,10 +5678,10 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5497,8 +5722,11 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>762</v>
       </c>
@@ -5506,10 +5734,10 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5550,8 +5778,11 @@
       <c r="Q76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>150</v>
       </c>
@@ -5559,10 +5790,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5603,8 +5834,11 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>384</v>
       </c>
@@ -5612,10 +5846,10 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5656,8 +5890,11 @@
       <c r="Q78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>1774</v>
       </c>
@@ -5665,10 +5902,10 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5709,8 +5946,11 @@
       <c r="Q79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>221</v>
       </c>
@@ -5718,10 +5958,10 @@
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5762,8 +6002,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>222</v>
       </c>
@@ -5771,10 +6014,10 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5815,8 +6058,11 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>766</v>
       </c>
@@ -5824,10 +6070,10 @@
         <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5868,8 +6114,11 @@
       <c r="Q82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>505</v>
       </c>
@@ -5877,10 +6126,10 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5921,8 +6170,11 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>498</v>
       </c>
@@ -5930,10 +6182,10 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5974,8 +6226,11 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>1719</v>
       </c>
@@ -5983,10 +6238,10 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6027,8 +6282,11 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>303</v>
       </c>
@@ -6036,10 +6294,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6080,8 +6338,11 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>225</v>
       </c>
@@ -6089,10 +6350,10 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6133,8 +6394,11 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>226</v>
       </c>
@@ -6142,10 +6406,10 @@
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6186,8 +6450,11 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>1711</v>
       </c>
@@ -6195,10 +6462,10 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6239,8 +6506,11 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>385</v>
       </c>
@@ -6248,10 +6518,10 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6292,8 +6562,11 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>228</v>
       </c>
@@ -6301,10 +6574,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6345,8 +6618,11 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>317</v>
       </c>
@@ -6354,10 +6630,10 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6398,8 +6674,11 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>770</v>
       </c>
@@ -6407,10 +6686,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6451,8 +6730,11 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
         <v>1903</v>
       </c>
@@ -6460,10 +6742,10 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6504,8 +6786,11 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
         <v>772</v>
       </c>
@@ -6513,10 +6798,10 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6557,8 +6842,11 @@
       <c r="Q95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
         <v>230</v>
       </c>
@@ -6566,10 +6854,10 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6610,8 +6898,11 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>114</v>
       </c>
@@ -6619,10 +6910,10 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6663,8 +6954,11 @@
       <c r="Q97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>388</v>
       </c>
@@ -6672,10 +6966,10 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6716,8 +7010,11 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>153</v>
       </c>
@@ -6725,10 +7022,10 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6769,8 +7066,11 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>232</v>
       </c>
@@ -6778,10 +7078,10 @@
         <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6822,8 +7122,11 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>233</v>
       </c>
@@ -6831,10 +7134,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6875,8 +7178,11 @@
       <c r="Q101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>777</v>
       </c>
@@ -6884,10 +7190,10 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6928,8 +7234,11 @@
       <c r="Q102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>779</v>
       </c>
@@ -6937,10 +7246,10 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6981,8 +7290,11 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>1771</v>
       </c>
@@ -6990,10 +7302,10 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -7034,8 +7346,11 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>1652</v>
       </c>
@@ -7043,10 +7358,10 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -7087,8 +7402,11 @@
       <c r="Q105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>907</v>
       </c>
@@ -7096,10 +7414,10 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -7140,8 +7458,11 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>784</v>
       </c>
@@ -7149,10 +7470,10 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -7193,8 +7514,11 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>1924</v>
       </c>
@@ -7202,10 +7526,10 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -7246,8 +7570,11 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>664</v>
       </c>
@@ -7255,10 +7582,10 @@
         <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7299,8 +7626,11 @@
       <c r="Q109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>785</v>
       </c>
@@ -7308,10 +7638,10 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7352,8 +7682,11 @@
       <c r="Q110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>1942</v>
       </c>
@@ -7361,10 +7694,10 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7405,8 +7738,11 @@
       <c r="Q111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>512</v>
       </c>
@@ -7414,10 +7750,10 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -7458,8 +7794,11 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>513</v>
       </c>
@@ -7467,10 +7806,10 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -7511,8 +7850,11 @@
       <c r="Q113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>786</v>
       </c>
@@ -7520,10 +7862,10 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -7564,8 +7906,11 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>14</v>
       </c>
@@ -7573,10 +7918,10 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7617,8 +7962,11 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>1729</v>
       </c>
@@ -7626,10 +7974,10 @@
         <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -7670,8 +8018,11 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>158</v>
       </c>
@@ -7679,10 +8030,10 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7723,8 +8074,11 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>788</v>
       </c>
@@ -7732,10 +8086,10 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -7776,8 +8130,11 @@
       <c r="Q118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>392</v>
       </c>
@@ -7785,10 +8142,10 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -7829,8 +8186,11 @@
       <c r="Q119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>394</v>
       </c>
@@ -7838,10 +8198,10 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -7882,8 +8242,11 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>1655</v>
       </c>
@@ -7891,10 +8254,10 @@
         <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -7935,8 +8298,11 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>160</v>
       </c>
@@ -7944,10 +8310,10 @@
         <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -7988,8 +8354,11 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>243</v>
       </c>
@@ -7997,10 +8366,10 @@
         <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -8041,8 +8410,11 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>523</v>
       </c>
@@ -8050,10 +8422,10 @@
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -8094,8 +8466,11 @@
       <c r="Q124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>72</v>
       </c>
@@ -8103,10 +8478,10 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -8147,8 +8522,11 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>244</v>
       </c>
@@ -8156,10 +8534,10 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -8200,8 +8578,11 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>396</v>
       </c>
@@ -8209,10 +8590,10 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -8253,8 +8634,11 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>397</v>
       </c>
@@ -8262,10 +8646,10 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -8306,8 +8690,11 @@
       <c r="Q128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
         <v>246</v>
       </c>
@@ -8315,10 +8702,10 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -8359,8 +8746,11 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
         <v>74</v>
       </c>
@@ -8368,10 +8758,10 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8412,8 +8802,11 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
         <v>398</v>
       </c>
@@ -8421,10 +8814,10 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -8465,8 +8858,11 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
         <v>917</v>
       </c>
@@ -8474,10 +8870,10 @@
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -8518,8 +8914,11 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
         <v>1658</v>
       </c>
@@ -8527,10 +8926,10 @@
         <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -8571,8 +8970,11 @@
       <c r="Q133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
         <v>399</v>
       </c>
@@ -8580,10 +8982,10 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -8624,8 +9026,11 @@
       <c r="Q134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
         <v>163</v>
       </c>
@@ -8633,10 +9038,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -8677,8 +9082,11 @@
       <c r="Q135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
         <v>530</v>
       </c>
@@ -8686,10 +9094,10 @@
         <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -8730,8 +9138,11 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
         <v>794</v>
       </c>
@@ -8739,10 +9150,10 @@
         <v>30</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -8783,8 +9194,11 @@
       <c r="Q137">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
         <v>531</v>
       </c>
@@ -8792,10 +9206,10 @@
         <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -8836,8 +9250,11 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
         <v>164</v>
       </c>
@@ -8845,10 +9262,10 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -8889,8 +9306,11 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
         <v>1966</v>
       </c>
@@ -8898,10 +9318,10 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -8942,8 +9362,11 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
         <v>252</v>
       </c>
@@ -8951,10 +9374,10 @@
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -8995,8 +9418,11 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
         <v>797</v>
       </c>
@@ -9004,10 +9430,10 @@
         <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -9048,8 +9474,11 @@
       <c r="Q142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
         <v>534</v>
       </c>
@@ -9057,10 +9486,10 @@
         <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -9101,8 +9530,11 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
         <v>798</v>
       </c>
@@ -9110,10 +9542,10 @@
         <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -9154,8 +9586,11 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="R144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>402</v>
       </c>
@@ -9163,10 +9598,10 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -9207,8 +9642,11 @@
       <c r="Q145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="R145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>1963</v>
       </c>
@@ -9216,10 +9654,10 @@
         <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -9260,8 +9698,11 @@
       <c r="Q146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="R146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>1735</v>
       </c>
@@ -9269,10 +9710,10 @@
         <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -9313,8 +9754,11 @@
       <c r="Q147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="R147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>1911</v>
       </c>
@@ -9322,10 +9766,10 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -9366,8 +9810,11 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="R148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>118</v>
       </c>
@@ -9375,10 +9822,10 @@
         <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -9419,8 +9866,11 @@
       <c r="Q149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="R149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>405</v>
       </c>
@@ -9428,10 +9878,10 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -9472,8 +9922,11 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>1507</v>
       </c>
@@ -9481,10 +9934,10 @@
         <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -9525,8 +9978,11 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="R151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>321</v>
       </c>
@@ -9534,10 +9990,10 @@
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -9578,8 +10034,11 @@
       <c r="Q152">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:17">
+      <c r="R152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>406</v>
       </c>
@@ -9587,10 +10046,10 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -9631,8 +10090,11 @@
       <c r="Q153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="R153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>677</v>
       </c>
@@ -9640,10 +10102,10 @@
         <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -9684,8 +10146,11 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="R154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="1">
         <v>353</v>
       </c>
@@ -9693,10 +10158,10 @@
         <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -9737,8 +10202,11 @@
       <c r="Q155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="R155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>1884</v>
       </c>
@@ -9746,10 +10214,10 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -9790,8 +10258,11 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="R156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>166</v>
       </c>
@@ -9799,10 +10270,10 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -9843,8 +10314,11 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>678</v>
       </c>
@@ -9852,10 +10326,10 @@
         <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -9896,8 +10370,11 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>537</v>
       </c>
@@ -9905,10 +10382,10 @@
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -9949,8 +10426,11 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>928</v>
       </c>
@@ -9958,10 +10438,10 @@
         <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -10002,8 +10482,11 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
+      <c r="R160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>1598</v>
       </c>
@@ -10011,10 +10494,10 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -10055,8 +10538,11 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17">
+      <c r="R161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>542</v>
       </c>
@@ -10064,10 +10550,10 @@
         <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -10108,8 +10594,11 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17">
+      <c r="R162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>1931</v>
       </c>
@@ -10117,10 +10606,10 @@
         <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -10161,8 +10650,11 @@
       <c r="Q163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>1659</v>
       </c>
@@ -10170,10 +10662,10 @@
         <v>30</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -10214,8 +10706,11 @@
       <c r="Q164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="R164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>1685</v>
       </c>
@@ -10223,10 +10718,10 @@
         <v>30</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -10267,8 +10762,11 @@
       <c r="Q165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:17">
+      <c r="R165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>882</v>
       </c>
@@ -10276,10 +10774,10 @@
         <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -10320,8 +10818,11 @@
       <c r="Q166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17">
+      <c r="R166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>415</v>
       </c>
@@ -10329,10 +10830,10 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -10373,8 +10874,11 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17">
+      <c r="R167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>416</v>
       </c>
@@ -10382,10 +10886,10 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -10426,8 +10930,11 @@
       <c r="Q168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17">
+      <c r="R168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>1621</v>
       </c>
@@ -10435,10 +10942,10 @@
         <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -10479,8 +10986,11 @@
       <c r="Q169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="R169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>417</v>
       </c>
@@ -10488,10 +10998,10 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -10532,8 +11042,11 @@
       <c r="Q170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:17">
+      <c r="R170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>80</v>
       </c>
@@ -10541,10 +11054,10 @@
         <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -10585,8 +11098,11 @@
       <c r="Q171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:17">
+      <c r="R171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>546</v>
       </c>
@@ -10594,10 +11110,10 @@
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -10638,8 +11154,11 @@
       <c r="Q172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:17">
+      <c r="R172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>547</v>
       </c>
@@ -10647,10 +11166,10 @@
         <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -10691,8 +11210,11 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17">
+      <c r="R173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>1916</v>
       </c>
@@ -10700,10 +11222,10 @@
         <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -10744,8 +11266,11 @@
       <c r="Q174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:17">
+      <c r="R174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>995</v>
       </c>
@@ -10753,10 +11278,10 @@
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D175" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -10797,8 +11322,11 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17">
+      <c r="R175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>1640</v>
       </c>
@@ -10806,10 +11334,10 @@
         <v>31</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -10850,8 +11378,11 @@
       <c r="Q176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:17">
+      <c r="R176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>327</v>
       </c>
@@ -10859,10 +11390,10 @@
         <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -10903,8 +11434,11 @@
       <c r="Q177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:17">
+      <c r="R177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>1705</v>
       </c>
@@ -10912,10 +11446,10 @@
         <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -10956,8 +11490,11 @@
       <c r="Q178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:17">
+      <c r="R178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>553</v>
       </c>
@@ -10965,10 +11502,10 @@
         <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -11009,8 +11546,11 @@
       <c r="Q179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:17">
+      <c r="R179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>262</v>
       </c>
@@ -11018,10 +11558,10 @@
         <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -11062,8 +11602,11 @@
       <c r="Q180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:17">
+      <c r="R180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>809</v>
       </c>
@@ -11071,10 +11614,10 @@
         <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -11115,8 +11658,11 @@
       <c r="Q181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:17">
+      <c r="R181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>331</v>
       </c>
@@ -11124,10 +11670,10 @@
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -11168,8 +11714,11 @@
       <c r="Q182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="R182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>24</v>
       </c>
@@ -11177,10 +11726,10 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -11221,8 +11770,11 @@
       <c r="Q183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:17">
+      <c r="R183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>168</v>
       </c>
@@ -11230,10 +11782,10 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -11274,8 +11826,11 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:17">
+      <c r="R184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -11283,10 +11838,10 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -11327,8 +11882,11 @@
       <c r="Q185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:17">
+      <c r="R185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>1641</v>
       </c>
@@ -11336,10 +11894,10 @@
         <v>31</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -11380,8 +11938,11 @@
       <c r="Q186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:17">
+      <c r="R186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>556</v>
       </c>
@@ -11389,10 +11950,10 @@
         <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -11433,8 +11994,11 @@
       <c r="Q187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:17">
+      <c r="R187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>935</v>
       </c>
@@ -11442,10 +12006,10 @@
         <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -11486,8 +12050,11 @@
       <c r="Q188">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:17">
+      <c r="R188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>420</v>
       </c>
@@ -11495,10 +12062,10 @@
         <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -11539,8 +12106,11 @@
       <c r="Q189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:17">
+      <c r="R189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>938</v>
       </c>
@@ -11548,10 +12118,10 @@
         <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -11592,8 +12162,11 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17">
+      <c r="R190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="1">
         <v>1948</v>
       </c>
@@ -11601,10 +12174,10 @@
         <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -11645,8 +12218,11 @@
       <c r="Q191">
         <v>11</v>
       </c>
-    </row>
-    <row r="192" spans="1:17">
+      <c r="R191">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>119</v>
       </c>
@@ -11654,10 +12230,10 @@
         <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -11698,8 +12274,11 @@
       <c r="Q192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:17">
+      <c r="R192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>687</v>
       </c>
@@ -11707,10 +12286,10 @@
         <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -11751,8 +12330,11 @@
       <c r="Q193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:17">
+      <c r="R193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>1842</v>
       </c>
@@ -11760,10 +12342,10 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -11804,8 +12386,11 @@
       <c r="Q194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:17">
+      <c r="R194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>1731</v>
       </c>
@@ -11813,10 +12398,10 @@
         <v>22</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -11857,8 +12442,11 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17">
+      <c r="R195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>1952</v>
       </c>
@@ -11866,10 +12454,10 @@
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -11910,8 +12498,11 @@
       <c r="Q196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:17">
+      <c r="R196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>815</v>
       </c>
@@ -11919,10 +12510,10 @@
         <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -11963,8 +12554,11 @@
       <c r="Q197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:17">
+      <c r="R197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>1709</v>
       </c>
@@ -11972,10 +12566,10 @@
         <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -12016,8 +12610,11 @@
       <c r="Q198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17">
+      <c r="R198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>1978</v>
       </c>
@@ -12025,10 +12622,10 @@
         <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -12069,8 +12666,11 @@
       <c r="Q199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17">
+      <c r="R199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>1955</v>
       </c>
@@ -12078,10 +12678,10 @@
         <v>25</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -12122,8 +12722,11 @@
       <c r="Q200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17">
+      <c r="R200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>335</v>
       </c>
@@ -12131,10 +12734,10 @@
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -12175,8 +12778,11 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17">
+      <c r="R201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>944</v>
       </c>
@@ -12184,10 +12790,10 @@
         <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -12228,8 +12834,11 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17">
+      <c r="R202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>1740</v>
       </c>
@@ -12237,10 +12846,10 @@
         <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -12281,8 +12890,11 @@
       <c r="Q203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:17">
+      <c r="R203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>946</v>
       </c>
@@ -12290,10 +12902,10 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -12334,8 +12946,11 @@
       <c r="Q204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:17">
+      <c r="R204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>356</v>
       </c>
@@ -12343,10 +12958,10 @@
         <v>26</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -12387,8 +13002,11 @@
       <c r="Q205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:17">
+      <c r="R205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>569</v>
       </c>
@@ -12396,10 +13014,10 @@
         <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -12440,8 +13058,11 @@
       <c r="Q206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:17">
+      <c r="R206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>267</v>
       </c>
@@ -12449,10 +13070,10 @@
         <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D207" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -12493,8 +13114,11 @@
       <c r="Q207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:17">
+      <c r="R207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>268</v>
       </c>
@@ -12502,10 +13126,10 @@
         <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -12546,8 +13170,11 @@
       <c r="Q208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:17">
+      <c r="R208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>1930</v>
       </c>
@@ -12555,10 +13182,10 @@
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -12599,8 +13226,11 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17">
+      <c r="R209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>1970</v>
       </c>
@@ -12608,10 +13238,10 @@
         <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -12652,8 +13282,11 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17">
+      <c r="R210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>1695</v>
       </c>
@@ -12661,10 +13294,10 @@
         <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D211" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -12705,8 +13338,11 @@
       <c r="Q211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:17">
+      <c r="R211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>1699</v>
       </c>
@@ -12714,10 +13350,10 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -12758,8 +13394,11 @@
       <c r="Q212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:17">
+      <c r="R212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>171</v>
       </c>
@@ -12767,10 +13406,10 @@
         <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -12811,8 +13450,11 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17">
+      <c r="R213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>575</v>
       </c>
@@ -12820,10 +13462,10 @@
         <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -12864,8 +13506,11 @@
       <c r="Q214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:17">
+      <c r="R214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>820</v>
       </c>
@@ -12873,10 +13518,10 @@
         <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -12917,8 +13562,11 @@
       <c r="Q215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:17">
+      <c r="R215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>302</v>
       </c>
@@ -12926,10 +13574,10 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D216" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -12970,8 +13618,11 @@
       <c r="Q216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:17">
+      <c r="R216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>579</v>
       </c>
@@ -12979,10 +13630,10 @@
         <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D217" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -13023,8 +13674,11 @@
       <c r="Q217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:17">
+      <c r="R217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>823</v>
       </c>
@@ -13032,10 +13686,10 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -13076,8 +13730,11 @@
       <c r="Q218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:17">
+      <c r="R218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>824</v>
       </c>
@@ -13085,10 +13742,10 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -13129,8 +13786,11 @@
       <c r="Q219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:17">
+      <c r="R219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>1895</v>
       </c>
@@ -13138,10 +13798,10 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D220" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -13182,8 +13842,11 @@
       <c r="Q220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:17">
+      <c r="R220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>269</v>
       </c>
@@ -13191,10 +13854,10 @@
         <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -13235,8 +13898,11 @@
       <c r="Q221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:17">
+      <c r="R221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>173</v>
       </c>
@@ -13244,10 +13910,10 @@
         <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -13288,8 +13954,11 @@
       <c r="Q222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:17">
+      <c r="R222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>1773</v>
       </c>
@@ -13297,10 +13966,10 @@
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -13341,8 +14010,11 @@
       <c r="Q223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:17">
+      <c r="R223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>175</v>
       </c>
@@ -13350,10 +14022,10 @@
         <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -13394,8 +14066,11 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17">
+      <c r="R224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>1586</v>
       </c>
@@ -13403,10 +14078,10 @@
         <v>25</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -13447,8 +14122,11 @@
       <c r="Q225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:17">
+      <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>826</v>
       </c>
@@ -13456,10 +14134,10 @@
         <v>30</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -13500,8 +14178,11 @@
       <c r="Q226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:17">
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>85</v>
       </c>
@@ -13509,10 +14190,10 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -13553,8 +14234,11 @@
       <c r="Q227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:17">
+      <c r="R227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>431</v>
       </c>
@@ -13562,10 +14246,10 @@
         <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -13606,8 +14290,11 @@
       <c r="Q228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:17">
+      <c r="R228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>432</v>
       </c>
@@ -13615,10 +14302,10 @@
         <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -13659,8 +14346,11 @@
       <c r="Q229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:17">
+      <c r="R229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>86</v>
       </c>
@@ -13668,10 +14358,10 @@
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -13712,8 +14402,11 @@
       <c r="Q230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:17">
+      <c r="R230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>828</v>
       </c>
@@ -13721,10 +14414,10 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D231" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -13765,8 +14458,11 @@
       <c r="Q231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:17">
+      <c r="R231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>1509</v>
       </c>
@@ -13774,10 +14470,10 @@
         <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -13818,8 +14514,11 @@
       <c r="Q232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:17">
+      <c r="R232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>437</v>
       </c>
@@ -13827,10 +14526,10 @@
         <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -13871,8 +14570,11 @@
       <c r="Q233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:17">
+      <c r="R233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>589</v>
       </c>
@@ -13880,10 +14582,10 @@
         <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -13924,8 +14626,11 @@
       <c r="Q234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:17">
+      <c r="R234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>1734</v>
       </c>
@@ -13933,10 +14638,10 @@
         <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -13977,8 +14682,11 @@
       <c r="Q235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:17">
+      <c r="R235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>590</v>
       </c>
@@ -13986,10 +14694,10 @@
         <v>28</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -14030,8 +14738,11 @@
       <c r="Q236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:17">
+      <c r="R236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>1894</v>
       </c>
@@ -14039,10 +14750,10 @@
         <v>31</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -14083,8 +14794,11 @@
       <c r="Q237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:17">
+      <c r="R237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>765</v>
       </c>
@@ -14092,10 +14806,10 @@
         <v>20</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D238" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -14136,8 +14850,11 @@
       <c r="Q238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:17">
+      <c r="R238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>1926</v>
       </c>
@@ -14145,10 +14862,10 @@
         <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -14189,8 +14906,11 @@
       <c r="Q239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:17">
+      <c r="R239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>439</v>
       </c>
@@ -14198,10 +14918,10 @@
         <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -14242,8 +14962,11 @@
       <c r="Q240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:17">
+      <c r="R240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="1">
         <v>273</v>
       </c>
@@ -14251,10 +14974,10 @@
         <v>25</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -14295,8 +15018,11 @@
       <c r="Q241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:17">
+      <c r="R241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="1">
         <v>177</v>
       </c>
@@ -14304,10 +15030,10 @@
         <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -14348,8 +15074,11 @@
       <c r="Q242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:17">
+      <c r="R242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="1">
         <v>703</v>
       </c>
@@ -14357,10 +15086,10 @@
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -14401,8 +15130,11 @@
       <c r="Q243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17">
+      <c r="R243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="1">
         <v>274</v>
       </c>
@@ -14410,10 +15142,10 @@
         <v>25</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -14454,8 +15186,11 @@
       <c r="Q244">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:17">
+      <c r="R244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="1">
         <v>339</v>
       </c>
@@ -14463,10 +15198,10 @@
         <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -14507,8 +15242,11 @@
       <c r="Q245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:17">
+      <c r="R245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="1">
         <v>1667</v>
       </c>
@@ -14516,10 +15254,10 @@
         <v>30</v>
       </c>
       <c r="C246" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D246" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -14560,8 +15298,11 @@
       <c r="Q246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:17">
+      <c r="R246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" s="1">
         <v>275</v>
       </c>
@@ -14569,10 +15310,10 @@
         <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -14613,8 +15354,11 @@
       <c r="Q247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:17">
+      <c r="R247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="1">
         <v>340</v>
       </c>
@@ -14622,10 +15366,10 @@
         <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -14666,8 +15410,11 @@
       <c r="Q248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:17">
+      <c r="R248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="1">
         <v>597</v>
       </c>
@@ -14675,10 +15422,10 @@
         <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -14719,8 +15466,11 @@
       <c r="Q249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:17">
+      <c r="R249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" s="1">
         <v>1742</v>
       </c>
@@ -14728,10 +15478,10 @@
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -14772,8 +15522,11 @@
       <c r="Q250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:17">
+      <c r="R250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" s="1">
         <v>603</v>
       </c>
@@ -14781,10 +15534,10 @@
         <v>28</v>
       </c>
       <c r="C251" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -14825,8 +15578,11 @@
       <c r="Q251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:17">
+      <c r="R251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" s="1">
         <v>1669</v>
       </c>
@@ -14834,10 +15590,10 @@
         <v>31</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D252" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -14878,8 +15634,11 @@
       <c r="Q252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:17">
+      <c r="R252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="1">
         <v>957</v>
       </c>
@@ -14887,10 +15646,10 @@
         <v>31</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D253" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -14931,8 +15690,11 @@
       <c r="Q253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:17">
+      <c r="R253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="1">
         <v>1674</v>
       </c>
@@ -14940,10 +15702,10 @@
         <v>30</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -14984,8 +15746,11 @@
       <c r="Q254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:17">
+      <c r="R254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="1">
         <v>599</v>
       </c>
@@ -14993,10 +15758,10 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -15037,8 +15802,11 @@
       <c r="Q255">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:17">
+      <c r="R255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="1">
         <v>277</v>
       </c>
@@ -15046,10 +15814,10 @@
         <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -15090,8 +15858,11 @@
       <c r="Q256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:17">
+      <c r="R256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="1">
         <v>840</v>
       </c>
@@ -15099,10 +15870,10 @@
         <v>30</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -15143,8 +15914,11 @@
       <c r="Q257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:17">
+      <c r="R257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="1">
         <v>441</v>
       </c>
@@ -15152,10 +15926,10 @@
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -15196,8 +15970,11 @@
       <c r="Q258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:17">
+      <c r="R258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="1">
         <v>279</v>
       </c>
@@ -15205,10 +15982,10 @@
         <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -15249,8 +16026,11 @@
       <c r="Q259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:17">
+      <c r="R259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="1">
         <v>606</v>
       </c>
@@ -15258,10 +16038,10 @@
         <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -15302,8 +16082,11 @@
       <c r="Q260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:17">
+      <c r="R260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="1">
         <v>88</v>
       </c>
@@ -15311,10 +16094,10 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D261" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -15355,8 +16138,11 @@
       <c r="Q261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:17">
+      <c r="R261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="1">
         <v>1676</v>
       </c>
@@ -15364,10 +16150,10 @@
         <v>29</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D262" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -15408,8 +16194,11 @@
       <c r="Q262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:17">
+      <c r="R262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="1">
         <v>965</v>
       </c>
@@ -15417,10 +16206,10 @@
         <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D263" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -15461,8 +16250,11 @@
       <c r="Q263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:17">
+      <c r="R263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="1">
         <v>1702</v>
       </c>
@@ -15470,10 +16262,10 @@
         <v>30</v>
       </c>
       <c r="C264" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D264" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -15514,8 +16306,11 @@
       <c r="Q264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:17">
+      <c r="R264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="1">
         <v>845</v>
       </c>
@@ -15523,10 +16318,10 @@
         <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D265" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -15567,8 +16362,11 @@
       <c r="Q265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:17">
+      <c r="R265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="1">
         <v>1883</v>
       </c>
@@ -15576,10 +16374,10 @@
         <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -15620,8 +16418,11 @@
       <c r="Q266">
         <v>13</v>
       </c>
-    </row>
-    <row r="267" spans="1:17">
+      <c r="R266">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="1">
         <v>610</v>
       </c>
@@ -15629,10 +16430,10 @@
         <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D267" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -15673,8 +16474,11 @@
       <c r="Q267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:17">
+      <c r="R267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268" s="1">
         <v>1714</v>
       </c>
@@ -15682,10 +16486,10 @@
         <v>29</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D268" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -15726,8 +16530,11 @@
       <c r="Q268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:17">
+      <c r="R268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269" s="1">
         <v>90</v>
       </c>
@@ -15735,10 +16542,10 @@
         <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D269" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -15779,8 +16586,11 @@
       <c r="Q269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:17">
+      <c r="R269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270" s="1">
         <v>342</v>
       </c>
@@ -15788,10 +16598,10 @@
         <v>26</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D270" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -15832,8 +16642,11 @@
       <c r="Q270">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:17">
+      <c r="R270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271" s="1">
         <v>847</v>
       </c>
@@ -15841,10 +16654,10 @@
         <v>30</v>
       </c>
       <c r="C271" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D271" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -15885,8 +16698,11 @@
       <c r="Q271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:17">
+      <c r="R271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272" s="1">
         <v>848</v>
       </c>
@@ -15894,10 +16710,10 @@
         <v>30</v>
       </c>
       <c r="C272" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D272" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -15938,8 +16754,11 @@
       <c r="Q272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:17">
+      <c r="R272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273" s="1">
         <v>37</v>
       </c>
@@ -15947,10 +16766,10 @@
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D273" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -15991,8 +16810,11 @@
       <c r="Q273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:17">
+      <c r="R273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274" s="1">
         <v>180</v>
       </c>
@@ -16000,10 +16822,10 @@
         <v>23</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -16044,8 +16866,11 @@
       <c r="Q274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:17">
+      <c r="R274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275" s="1">
         <v>532</v>
       </c>
@@ -16053,10 +16878,10 @@
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -16097,8 +16922,11 @@
       <c r="Q275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:17">
+      <c r="R275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276" s="1">
         <v>851</v>
       </c>
@@ -16106,10 +16934,10 @@
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -16150,8 +16978,11 @@
       <c r="Q276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:17">
+      <c r="R276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277" s="1">
         <v>1708</v>
       </c>
@@ -16159,10 +16990,10 @@
         <v>23</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -16203,8 +17034,11 @@
       <c r="Q277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:17">
+      <c r="R277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278" s="1">
         <v>971</v>
       </c>
@@ -16212,10 +17046,10 @@
         <v>31</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D278" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -16256,8 +17090,11 @@
       <c r="Q278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:17">
+      <c r="R278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" s="1">
         <v>1904</v>
       </c>
@@ -16265,10 +17102,10 @@
         <v>26</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D279" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -16309,8 +17146,11 @@
       <c r="Q279">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:17">
+      <c r="R279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280" s="1">
         <v>1900</v>
       </c>
@@ -16318,10 +17158,10 @@
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D280" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -16362,8 +17202,11 @@
       <c r="Q280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:17">
+      <c r="R280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281" s="1">
         <v>715</v>
       </c>
@@ -16371,10 +17214,10 @@
         <v>29</v>
       </c>
       <c r="C281" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D281" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -16415,8 +17258,11 @@
       <c r="Q281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:17">
+      <c r="R281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282" s="1">
         <v>93</v>
       </c>
@@ -16424,10 +17270,10 @@
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D282" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -16468,8 +17314,11 @@
       <c r="Q282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:17">
+      <c r="R282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" s="1">
         <v>448</v>
       </c>
@@ -16477,10 +17326,10 @@
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -16521,8 +17370,11 @@
       <c r="Q283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:17">
+      <c r="R283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" s="1">
         <v>1525</v>
       </c>
@@ -16530,10 +17382,10 @@
         <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D284" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -16574,8 +17426,11 @@
       <c r="Q284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:17">
+      <c r="R284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" s="1">
         <v>716</v>
       </c>
@@ -16583,10 +17438,10 @@
         <v>29</v>
       </c>
       <c r="C285" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -16627,8 +17482,11 @@
       <c r="Q285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:17">
+      <c r="R285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286" s="1">
         <v>281</v>
       </c>
@@ -16636,10 +17494,10 @@
         <v>25</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -16680,8 +17538,11 @@
       <c r="Q286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:17">
+      <c r="R286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287" s="1">
         <v>855</v>
       </c>
@@ -16689,10 +17550,10 @@
         <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -16733,8 +17594,11 @@
       <c r="Q287">
         <v>29</v>
       </c>
-    </row>
-    <row r="288" spans="1:17">
+      <c r="R287">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288" s="1">
         <v>183</v>
       </c>
@@ -16742,10 +17606,10 @@
         <v>23</v>
       </c>
       <c r="C288" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -16786,8 +17650,11 @@
       <c r="Q288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:17">
+      <c r="R288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289" s="1">
         <v>1700</v>
       </c>
@@ -16795,10 +17662,10 @@
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D289" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -16839,8 +17706,11 @@
       <c r="Q289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:17">
+      <c r="R289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" s="1">
         <v>1730</v>
       </c>
@@ -16848,10 +17718,10 @@
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D290" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -16892,8 +17762,11 @@
       <c r="Q290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:17">
+      <c r="R290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" s="1">
         <v>737</v>
       </c>
@@ -16901,10 +17774,10 @@
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -16945,8 +17818,11 @@
       <c r="Q291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:17">
+      <c r="R291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" s="1">
         <v>856</v>
       </c>
@@ -16954,10 +17830,10 @@
         <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -16998,8 +17874,11 @@
       <c r="Q292">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:17">
+      <c r="R292">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" s="1">
         <v>450</v>
       </c>
@@ -17007,10 +17886,10 @@
         <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -17051,8 +17930,11 @@
       <c r="Q293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:17">
+      <c r="R293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294" s="1">
         <v>451</v>
       </c>
@@ -17060,10 +17942,10 @@
         <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -17104,8 +17986,11 @@
       <c r="Q294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:17">
+      <c r="R294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295" s="1">
         <v>184</v>
       </c>
@@ -17113,10 +17998,10 @@
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D295" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -17157,8 +18042,11 @@
       <c r="Q295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:17">
+      <c r="R295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296" s="1">
         <v>344</v>
       </c>
@@ -17166,10 +18054,10 @@
         <v>26</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D296" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -17210,8 +18098,11 @@
       <c r="Q296">
         <v>14</v>
       </c>
-    </row>
-    <row r="297" spans="1:17">
+      <c r="R296">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297" s="1">
         <v>1581</v>
       </c>
@@ -17219,10 +18110,10 @@
         <v>26</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D297" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -17263,8 +18154,11 @@
       <c r="Q297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:17">
+      <c r="R297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298" s="1">
         <v>981</v>
       </c>
@@ -17272,10 +18166,10 @@
         <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D298" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -17316,8 +18210,11 @@
       <c r="Q298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:17">
+      <c r="R298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
       <c r="A299" s="1">
         <v>994</v>
       </c>
@@ -17325,10 +18222,10 @@
         <v>31</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D299" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -17369,8 +18266,11 @@
       <c r="Q299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:17">
+      <c r="R299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" s="1">
         <v>858</v>
       </c>
@@ -17378,10 +18278,10 @@
         <v>30</v>
       </c>
       <c r="C300" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D300" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -17422,8 +18322,11 @@
       <c r="Q300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:17">
+      <c r="R300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301" s="1">
         <v>47</v>
       </c>
@@ -17431,10 +18334,10 @@
         <v>20</v>
       </c>
       <c r="C301" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D301" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -17475,8 +18378,11 @@
       <c r="Q301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:17">
+      <c r="R301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" s="1">
         <v>345</v>
       </c>
@@ -17484,10 +18390,10 @@
         <v>26</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D302" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -17528,8 +18434,11 @@
       <c r="Q302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:17">
+      <c r="R302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303" s="1">
         <v>717</v>
       </c>
@@ -17537,10 +18446,10 @@
         <v>29</v>
       </c>
       <c r="C303" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D303" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -17581,8 +18490,11 @@
       <c r="Q303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:17">
+      <c r="R303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304" s="1">
         <v>861</v>
       </c>
@@ -17590,10 +18502,10 @@
         <v>30</v>
       </c>
       <c r="C304" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D304" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -17634,8 +18546,11 @@
       <c r="Q304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:17">
+      <c r="R304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305" s="1">
         <v>453</v>
       </c>
@@ -17643,10 +18558,10 @@
         <v>27</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -17687,8 +18602,11 @@
       <c r="Q305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:17">
+      <c r="R305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" s="1">
         <v>983</v>
       </c>
@@ -17696,10 +18614,10 @@
         <v>31</v>
       </c>
       <c r="C306" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D306" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -17740,8 +18658,11 @@
       <c r="Q306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:17">
+      <c r="R306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307" s="1">
         <v>984</v>
       </c>
@@ -17749,10 +18670,10 @@
         <v>31</v>
       </c>
       <c r="C307" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D307" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -17793,8 +18714,11 @@
       <c r="Q307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:17">
+      <c r="R307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" s="1">
         <v>1961</v>
       </c>
@@ -17802,10 +18726,10 @@
         <v>26</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D308" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -17846,8 +18770,11 @@
       <c r="Q308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:17">
+      <c r="R308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309" s="1">
         <v>622</v>
       </c>
@@ -17855,10 +18782,10 @@
         <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D309" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -17899,8 +18826,11 @@
       <c r="Q309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:17">
+      <c r="R309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18">
       <c r="A310" s="1">
         <v>96</v>
       </c>
@@ -17908,10 +18838,10 @@
         <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -17952,8 +18882,11 @@
       <c r="Q310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:17">
+      <c r="R310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18">
       <c r="A311" s="1">
         <v>718</v>
       </c>
@@ -17961,10 +18894,10 @@
         <v>29</v>
       </c>
       <c r="C311" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D311" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -18005,8 +18938,11 @@
       <c r="Q311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:17">
+      <c r="R311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312" s="1">
         <v>986</v>
       </c>
@@ -18014,10 +18950,10 @@
         <v>31</v>
       </c>
       <c r="C312" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D312" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -18058,8 +18994,11 @@
       <c r="Q312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:17">
+      <c r="R312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313" s="1">
         <v>626</v>
       </c>
@@ -18067,10 +19006,10 @@
         <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D313" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -18111,8 +19050,11 @@
       <c r="Q313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:17">
+      <c r="R313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18">
       <c r="A314" s="1">
         <v>285</v>
       </c>
@@ -18120,10 +19062,10 @@
         <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D314" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -18164,8 +19106,11 @@
       <c r="Q314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:17">
+      <c r="R314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18">
       <c r="A315" s="1">
         <v>865</v>
       </c>
@@ -18173,10 +19118,10 @@
         <v>30</v>
       </c>
       <c r="C315" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D315" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -18217,8 +19162,11 @@
       <c r="Q315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:17">
+      <c r="R315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316" s="1">
         <v>1949</v>
       </c>
@@ -18226,10 +19174,10 @@
         <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -18270,8 +19218,11 @@
       <c r="Q316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:17">
+      <c r="R316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18">
       <c r="A317" s="1">
         <v>866</v>
       </c>
@@ -18279,10 +19230,10 @@
         <v>30</v>
       </c>
       <c r="C317" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -18323,8 +19274,11 @@
       <c r="Q317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:17">
+      <c r="R317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318" s="1">
         <v>867</v>
       </c>
@@ -18332,10 +19286,10 @@
         <v>30</v>
       </c>
       <c r="C318" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D318" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -18376,8 +19330,11 @@
       <c r="Q318">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:17">
+      <c r="R318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18">
       <c r="A319" s="1">
         <v>627</v>
       </c>
@@ -18385,10 +19342,10 @@
         <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D319" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -18429,8 +19386,11 @@
       <c r="Q319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:17">
+      <c r="R319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
       <c r="A320" s="1">
         <v>289</v>
       </c>
@@ -18438,10 +19398,10 @@
         <v>25</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -18482,8 +19442,11 @@
       <c r="Q320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:17">
+      <c r="R320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321" s="1">
         <v>629</v>
       </c>
@@ -18491,10 +19454,10 @@
         <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D321" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -18535,8 +19498,11 @@
       <c r="Q321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:17">
+      <c r="R321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
       <c r="A322" s="1">
         <v>852</v>
       </c>
@@ -18544,10 +19510,10 @@
         <v>27</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D322" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -18588,8 +19554,11 @@
       <c r="Q322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:17">
+      <c r="R322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18">
       <c r="A323" s="1">
         <v>988</v>
       </c>
@@ -18597,10 +19566,10 @@
         <v>31</v>
       </c>
       <c r="C323" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D323" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -18641,8 +19610,11 @@
       <c r="Q323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:17">
+      <c r="R323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18">
       <c r="A324" s="1">
         <v>457</v>
       </c>
@@ -18650,10 +19622,10 @@
         <v>27</v>
       </c>
       <c r="C324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -18694,8 +19666,11 @@
       <c r="Q324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:17">
+      <c r="R324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18">
       <c r="A325" s="1">
         <v>1960</v>
       </c>
@@ -18703,10 +19678,10 @@
         <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -18747,8 +19722,11 @@
       <c r="Q325">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:17">
+      <c r="R325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
       <c r="A326" s="1">
         <v>668</v>
       </c>
@@ -18756,10 +19734,10 @@
         <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -18800,8 +19778,11 @@
       <c r="Q326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:17">
+      <c r="R326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
       <c r="A327" s="1">
         <v>1969</v>
       </c>
@@ -18809,10 +19790,10 @@
         <v>20</v>
       </c>
       <c r="C327" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D327" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -18853,8 +19834,11 @@
       <c r="Q327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:17">
+      <c r="R327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
       <c r="A328" s="1">
         <v>1701</v>
       </c>
@@ -18862,10 +19846,10 @@
         <v>22</v>
       </c>
       <c r="C328" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D328" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -18906,8 +19890,11 @@
       <c r="Q328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:17">
+      <c r="R328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18">
       <c r="A329" s="1">
         <v>293</v>
       </c>
@@ -18915,10 +19902,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D329" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -18959,8 +19946,11 @@
       <c r="Q329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:17">
+      <c r="R329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18">
       <c r="A330" s="1">
         <v>1950</v>
       </c>
@@ -18968,10 +19958,10 @@
         <v>20</v>
       </c>
       <c r="C330" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D330" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -19012,8 +20002,11 @@
       <c r="Q330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:17">
+      <c r="R330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
       <c r="A331" s="1">
         <v>1783</v>
       </c>
@@ -19021,10 +20014,10 @@
         <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D331" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -19065,8 +20058,11 @@
       <c r="Q331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:17">
+      <c r="R331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18">
       <c r="A332" s="1">
         <v>98</v>
       </c>
@@ -19074,10 +20070,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -19118,8 +20114,11 @@
       <c r="Q332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:17">
+      <c r="R332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18">
       <c r="A333" s="1">
         <v>614</v>
       </c>
@@ -19127,10 +20126,10 @@
         <v>28</v>
       </c>
       <c r="C333" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D333" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -19171,8 +20170,11 @@
       <c r="Q333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:17">
+      <c r="R333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18">
       <c r="A334" s="1">
         <v>189</v>
       </c>
@@ -19180,10 +20182,10 @@
         <v>23</v>
       </c>
       <c r="C334" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D334" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -19224,8 +20226,11 @@
       <c r="Q334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:17">
+      <c r="R334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
       <c r="A335" s="1">
         <v>296</v>
       </c>
@@ -19233,10 +20238,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -19277,8 +20282,11 @@
       <c r="Q335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:17">
+      <c r="R335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18">
       <c r="A336" s="1">
         <v>1696</v>
       </c>
@@ -19286,10 +20294,10 @@
         <v>27</v>
       </c>
       <c r="C336" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -19330,8 +20338,11 @@
       <c r="Q336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:17">
+      <c r="R336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18">
       <c r="A337" s="1">
         <v>352</v>
       </c>
@@ -19339,10 +20350,10 @@
         <v>26</v>
       </c>
       <c r="C337" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -19383,8 +20394,11 @@
       <c r="Q337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:17">
+      <c r="R337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
       <c r="A338" s="1">
         <v>294</v>
       </c>
@@ -19392,10 +20406,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D338" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -19436,8 +20450,11 @@
       <c r="Q338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:17">
+      <c r="R338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
       <c r="A339" s="1">
         <v>873</v>
       </c>
@@ -19445,10 +20462,10 @@
         <v>30</v>
       </c>
       <c r="C339" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -19489,8 +20506,11 @@
       <c r="Q339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:17">
+      <c r="R339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18">
       <c r="A340" s="1">
         <v>632</v>
       </c>
@@ -19498,10 +20518,10 @@
         <v>26</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D340" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -19542,8 +20562,11 @@
       <c r="Q340">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:17">
+      <c r="R340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
       <c r="A341" s="1">
         <v>880</v>
       </c>
@@ -19551,10 +20574,10 @@
         <v>27</v>
       </c>
       <c r="C341" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D341" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -19595,8 +20618,11 @@
       <c r="Q341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:17">
+      <c r="R341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
       <c r="A342" s="1">
         <v>351</v>
       </c>
@@ -19604,10 +20630,10 @@
         <v>26</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D342" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -19648,8 +20674,11 @@
       <c r="Q342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:17">
+      <c r="R342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
       <c r="A343" s="1">
         <v>479</v>
       </c>
@@ -19657,10 +20686,10 @@
         <v>27</v>
       </c>
       <c r="C343" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -19701,8 +20730,11 @@
       <c r="Q343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:17">
+      <c r="R343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18">
       <c r="A344" s="1">
         <v>297</v>
       </c>
@@ -19710,10 +20742,10 @@
         <v>25</v>
       </c>
       <c r="C344" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -19754,8 +20786,11 @@
       <c r="Q344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:17">
+      <c r="R344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18">
       <c r="A345" s="1">
         <v>473</v>
       </c>
@@ -19763,10 +20798,10 @@
         <v>27</v>
       </c>
       <c r="C345" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D345" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -19807,8 +20842,11 @@
       <c r="Q345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:17">
+      <c r="R345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18">
       <c r="A346" s="1">
         <v>50</v>
       </c>
@@ -19816,10 +20854,10 @@
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D346" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -19860,8 +20898,11 @@
       <c r="Q346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:17">
+      <c r="R346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18">
       <c r="A347" s="1">
         <v>355</v>
       </c>
@@ -19869,10 +20910,10 @@
         <v>26</v>
       </c>
       <c r="C347" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D347" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -19913,8 +20954,11 @@
       <c r="Q347">
         <v>2</v>
       </c>
-    </row>
-    <row r="348" spans="1:17">
+      <c r="R347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18">
       <c r="A348" s="1">
         <v>299</v>
       </c>
@@ -19922,10 +20966,10 @@
         <v>25</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -19966,8 +21010,11 @@
       <c r="Q348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:17">
+      <c r="R348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18">
       <c r="A349" s="1">
         <v>637</v>
       </c>
@@ -19975,10 +21022,10 @@
         <v>28</v>
       </c>
       <c r="C349" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D349" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -20019,8 +21066,11 @@
       <c r="Q349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:17">
+      <c r="R349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18">
       <c r="A350" s="1">
         <v>638</v>
       </c>
@@ -20028,10 +21078,10 @@
         <v>28</v>
       </c>
       <c r="C350" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D350" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -20072,8 +21122,11 @@
       <c r="Q350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:17">
+      <c r="R350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18">
       <c r="A351" s="1">
         <v>1892</v>
       </c>
@@ -20081,10 +21134,10 @@
         <v>28</v>
       </c>
       <c r="C351" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D351" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -20125,8 +21178,11 @@
       <c r="Q351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:17">
+      <c r="R351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18">
       <c r="A352" s="1">
         <v>879</v>
       </c>
@@ -20134,10 +21190,10 @@
         <v>30</v>
       </c>
       <c r="C352" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -20178,8 +21234,11 @@
       <c r="Q352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:17">
+      <c r="R352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18">
       <c r="A353" s="1">
         <v>301</v>
       </c>
@@ -20187,10 +21246,10 @@
         <v>25</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D353" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -20231,8 +21290,11 @@
       <c r="Q353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:17">
+      <c r="R353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18">
       <c r="A354" s="1">
         <v>1896</v>
       </c>
@@ -20240,10 +21302,10 @@
         <v>23</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D354" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -20284,8 +21346,11 @@
       <c r="Q354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:17">
+      <c r="R354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18">
       <c r="A355" s="1">
         <v>642</v>
       </c>
@@ -20293,10 +21358,10 @@
         <v>28</v>
       </c>
       <c r="C355" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D355" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -20337,8 +21402,11 @@
       <c r="Q355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:17">
+      <c r="R355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18">
       <c r="A356" s="1">
         <v>193</v>
       </c>
@@ -20346,10 +21414,10 @@
         <v>23</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -20389,6 +21457,9 @@
       </c>
       <c r="Q356">
         <v>1</v>
+      </c>
+      <c r="R356">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -16195,7 +16195,7 @@
         <v>2</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="R303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:18">

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="384">
   <si>
     <t>Provinciecode</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>11-03-2020</t>
+  </si>
+  <si>
+    <t>12-03-2020</t>
   </si>
   <si>
     <t>gemeente_id</t>
@@ -1520,15 +1523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:S356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1581,8 +1584,11 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>518</v>
       </c>
@@ -1590,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1637,8 +1643,11 @@
       <c r="R2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>796</v>
       </c>
@@ -1646,10 +1655,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1693,8 +1702,11 @@
       <c r="R3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>1680</v>
       </c>
@@ -1702,10 +1714,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1749,8 +1761,11 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>358</v>
       </c>
@@ -1758,10 +1773,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1805,8 +1820,11 @@
       <c r="R5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>197</v>
       </c>
@@ -1814,10 +1832,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1861,8 +1879,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>59</v>
       </c>
@@ -1870,10 +1891,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1917,8 +1938,11 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>482</v>
       </c>
@@ -1926,10 +1950,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1973,8 +1997,11 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>613</v>
       </c>
@@ -1982,10 +2009,10 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2029,8 +2056,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>361</v>
       </c>
@@ -2038,10 +2068,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2085,8 +2115,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>141</v>
       </c>
@@ -2094,10 +2127,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2141,8 +2174,11 @@
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -2150,10 +2186,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2197,8 +2233,11 @@
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>484</v>
       </c>
@@ -2206,10 +2245,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2253,8 +2292,11 @@
       <c r="R13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>1723</v>
       </c>
@@ -2262,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2309,8 +2351,11 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>1959</v>
       </c>
@@ -2318,10 +2363,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2365,8 +2410,11 @@
       <c r="R15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -2374,10 +2422,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2421,8 +2469,11 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>307</v>
       </c>
@@ -2430,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2477,8 +2528,11 @@
       <c r="R17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>362</v>
       </c>
@@ -2486,10 +2540,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2533,8 +2587,11 @@
       <c r="R18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>363</v>
       </c>
@@ -2542,10 +2599,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2589,8 +2646,11 @@
       <c r="R19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -2598,10 +2658,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2645,8 +2705,11 @@
       <c r="R20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -2654,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2701,8 +2764,11 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -2710,10 +2776,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2757,8 +2823,11 @@
       <c r="R22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>106</v>
       </c>
@@ -2766,10 +2835,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2813,8 +2882,11 @@
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>743</v>
       </c>
@@ -2822,10 +2894,10 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2869,8 +2941,11 @@
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>744</v>
       </c>
@@ -2878,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2925,8 +3000,11 @@
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>308</v>
       </c>
@@ -2934,10 +3012,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2981,8 +3059,11 @@
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>489</v>
       </c>
@@ -2990,10 +3071,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3037,8 +3118,11 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>203</v>
       </c>
@@ -3046,10 +3130,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3093,8 +3177,11 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>888</v>
       </c>
@@ -3102,10 +3189,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3149,8 +3236,11 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>1954</v>
       </c>
@@ -3158,10 +3248,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3205,8 +3295,11 @@
       <c r="R30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>370</v>
       </c>
@@ -3214,10 +3307,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3261,8 +3354,11 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>889</v>
       </c>
@@ -3270,10 +3366,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3317,8 +3413,11 @@
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>1945</v>
       </c>
@@ -3326,10 +3425,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3373,8 +3472,11 @@
       <c r="R33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>1724</v>
       </c>
@@ -3382,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3429,8 +3531,11 @@
       <c r="R34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>893</v>
       </c>
@@ -3438,10 +3543,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3485,8 +3590,11 @@
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>373</v>
       </c>
@@ -3494,10 +3602,10 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3541,8 +3649,11 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>748</v>
       </c>
@@ -3550,10 +3661,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3597,8 +3708,11 @@
       <c r="R37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>1859</v>
       </c>
@@ -3606,10 +3720,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3653,8 +3767,11 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>1721</v>
       </c>
@@ -3662,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3709,8 +3826,11 @@
       <c r="R39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>753</v>
       </c>
@@ -3718,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3765,8 +3885,11 @@
       <c r="R40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>209</v>
       </c>
@@ -3774,10 +3897,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3821,8 +3944,11 @@
       <c r="R41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>375</v>
       </c>
@@ -3830,10 +3956,10 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3877,8 +4003,11 @@
       <c r="R42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>1728</v>
       </c>
@@ -3886,10 +4015,10 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3933,8 +4062,11 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>376</v>
       </c>
@@ -3942,10 +4074,10 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3989,8 +4121,11 @@
       <c r="R44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>377</v>
       </c>
@@ -3998,10 +4133,10 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4045,8 +4180,11 @@
       <c r="R45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>1901</v>
       </c>
@@ -4054,10 +4192,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4101,8 +4239,11 @@
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>755</v>
       </c>
@@ -4110,10 +4251,10 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4157,8 +4298,11 @@
       <c r="R47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>1681</v>
       </c>
@@ -4166,10 +4310,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4213,8 +4357,11 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>147</v>
       </c>
@@ -4222,10 +4369,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4269,8 +4416,11 @@
       <c r="R49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>654</v>
       </c>
@@ -4278,10 +4428,10 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4325,8 +4475,11 @@
       <c r="R50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>756</v>
       </c>
@@ -4334,10 +4487,10 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4381,8 +4534,11 @@
       <c r="R51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>757</v>
       </c>
@@ -4390,10 +4546,10 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4437,8 +4593,11 @@
       <c r="R52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>758</v>
       </c>
@@ -4446,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4493,8 +4652,11 @@
       <c r="R53">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>501</v>
       </c>
@@ -4502,10 +4664,10 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4549,8 +4711,11 @@
       <c r="R54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>1876</v>
       </c>
@@ -4558,10 +4723,10 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4605,8 +4770,11 @@
       <c r="R55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>213</v>
       </c>
@@ -4614,10 +4782,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4661,8 +4829,11 @@
       <c r="R56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>899</v>
       </c>
@@ -4670,10 +4841,10 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4717,8 +4888,11 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>312</v>
       </c>
@@ -4726,10 +4900,10 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4773,8 +4947,11 @@
       <c r="R58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>313</v>
       </c>
@@ -4782,10 +4959,10 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4829,8 +5006,11 @@
       <c r="R59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>214</v>
       </c>
@@ -4838,10 +5018,10 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4885,8 +5065,11 @@
       <c r="R60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>502</v>
       </c>
@@ -4894,10 +5077,10 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4941,8 +5124,11 @@
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>383</v>
       </c>
@@ -4950,10 +5136,10 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4997,8 +5183,11 @@
       <c r="R62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>109</v>
       </c>
@@ -5006,10 +5195,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5053,8 +5242,11 @@
       <c r="R63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>1706</v>
       </c>
@@ -5062,10 +5254,10 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5109,8 +5301,11 @@
       <c r="R64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>1684</v>
       </c>
@@ -5118,10 +5313,10 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5165,8 +5360,11 @@
       <c r="R65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>216</v>
       </c>
@@ -5174,10 +5372,10 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5221,8 +5419,11 @@
       <c r="R66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>148</v>
       </c>
@@ -5230,10 +5431,10 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5277,8 +5478,11 @@
       <c r="R67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>1891</v>
       </c>
@@ -5286,10 +5490,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5333,8 +5537,11 @@
       <c r="R68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>310</v>
       </c>
@@ -5342,10 +5549,10 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5389,8 +5596,11 @@
       <c r="R69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>1940</v>
       </c>
@@ -5398,10 +5608,10 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5445,8 +5655,11 @@
       <c r="R70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>736</v>
       </c>
@@ -5454,10 +5667,10 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5501,8 +5714,11 @@
       <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>1690</v>
       </c>
@@ -5510,10 +5726,10 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5557,8 +5773,11 @@
       <c r="R72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>503</v>
       </c>
@@ -5566,10 +5785,10 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5613,8 +5832,11 @@
       <c r="R73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -5622,10 +5844,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5669,8 +5891,11 @@
       <c r="R74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>400</v>
       </c>
@@ -5678,10 +5903,10 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5725,8 +5950,11 @@
       <c r="R75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>762</v>
       </c>
@@ -5734,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5781,8 +6009,11 @@
       <c r="R76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>150</v>
       </c>
@@ -5790,10 +6021,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5837,8 +6068,11 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>384</v>
       </c>
@@ -5846,10 +6080,10 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5893,8 +6127,11 @@
       <c r="R78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>1774</v>
       </c>
@@ -5902,10 +6139,10 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5949,8 +6186,11 @@
       <c r="R79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>221</v>
       </c>
@@ -5958,10 +6198,10 @@
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6005,8 +6245,11 @@
       <c r="R80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>222</v>
       </c>
@@ -6014,10 +6257,10 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6061,8 +6304,11 @@
       <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>766</v>
       </c>
@@ -6070,10 +6316,10 @@
         <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6117,8 +6363,11 @@
       <c r="R82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>505</v>
       </c>
@@ -6126,10 +6375,10 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6173,8 +6422,11 @@
       <c r="R83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>498</v>
       </c>
@@ -6182,10 +6434,10 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6229,8 +6481,11 @@
       <c r="R84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>1719</v>
       </c>
@@ -6238,10 +6493,10 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6285,8 +6540,11 @@
       <c r="R85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>303</v>
       </c>
@@ -6294,10 +6552,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6341,8 +6599,11 @@
       <c r="R86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>225</v>
       </c>
@@ -6350,10 +6611,10 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6397,8 +6658,11 @@
       <c r="R87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>226</v>
       </c>
@@ -6406,10 +6670,10 @@
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6453,8 +6717,11 @@
       <c r="R88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>1711</v>
       </c>
@@ -6462,10 +6729,10 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6509,8 +6776,11 @@
       <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>385</v>
       </c>
@@ -6518,10 +6788,10 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6565,8 +6835,11 @@
       <c r="R90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>228</v>
       </c>
@@ -6574,10 +6847,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6621,8 +6894,11 @@
       <c r="R91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>317</v>
       </c>
@@ -6630,10 +6906,10 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6677,8 +6953,11 @@
       <c r="R92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>770</v>
       </c>
@@ -6686,10 +6965,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6733,8 +7012,11 @@
       <c r="R93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>1903</v>
       </c>
@@ -6742,10 +7024,10 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6789,8 +7071,11 @@
       <c r="R94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>772</v>
       </c>
@@ -6798,10 +7083,10 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6845,8 +7130,11 @@
       <c r="R95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>230</v>
       </c>
@@ -6854,10 +7142,10 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6901,8 +7189,11 @@
       <c r="R96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>114</v>
       </c>
@@ -6910,10 +7201,10 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6957,8 +7248,11 @@
       <c r="R97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>388</v>
       </c>
@@ -6966,10 +7260,10 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7013,8 +7307,11 @@
       <c r="R98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>153</v>
       </c>
@@ -7022,10 +7319,10 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7069,8 +7366,11 @@
       <c r="R99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>232</v>
       </c>
@@ -7078,10 +7378,10 @@
         <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7125,8 +7425,11 @@
       <c r="R100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>233</v>
       </c>
@@ -7134,10 +7437,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7181,8 +7484,11 @@
       <c r="R101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>777</v>
       </c>
@@ -7190,10 +7496,10 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7237,8 +7543,11 @@
       <c r="R102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>779</v>
       </c>
@@ -7246,10 +7555,10 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7293,8 +7602,11 @@
       <c r="R103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>1771</v>
       </c>
@@ -7302,10 +7614,10 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -7349,8 +7661,11 @@
       <c r="R104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>1652</v>
       </c>
@@ -7358,10 +7673,10 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -7405,8 +7720,11 @@
       <c r="R105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>907</v>
       </c>
@@ -7414,10 +7732,10 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -7461,8 +7779,11 @@
       <c r="R106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>784</v>
       </c>
@@ -7470,10 +7791,10 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -7517,8 +7838,11 @@
       <c r="R107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>1924</v>
       </c>
@@ -7526,10 +7850,10 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -7573,8 +7897,11 @@
       <c r="R108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>664</v>
       </c>
@@ -7582,10 +7909,10 @@
         <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7629,8 +7956,11 @@
       <c r="R109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>785</v>
       </c>
@@ -7638,10 +7968,10 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7685,8 +8015,11 @@
       <c r="R110">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>1942</v>
       </c>
@@ -7694,10 +8027,10 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7741,8 +8074,11 @@
       <c r="R111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>512</v>
       </c>
@@ -7750,10 +8086,10 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -7797,8 +8133,11 @@
       <c r="R112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>513</v>
       </c>
@@ -7806,10 +8145,10 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -7853,8 +8192,11 @@
       <c r="R113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>786</v>
       </c>
@@ -7862,10 +8204,10 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -7909,8 +8251,11 @@
       <c r="R114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>14</v>
       </c>
@@ -7918,10 +8263,10 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7965,8 +8310,11 @@
       <c r="R115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>1729</v>
       </c>
@@ -7974,10 +8322,10 @@
         <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8021,8 +8369,11 @@
       <c r="R116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>158</v>
       </c>
@@ -8030,10 +8381,10 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -8077,8 +8428,11 @@
       <c r="R117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>788</v>
       </c>
@@ -8086,10 +8440,10 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -8133,8 +8487,11 @@
       <c r="R118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>392</v>
       </c>
@@ -8142,10 +8499,10 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -8189,8 +8546,11 @@
       <c r="R119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>394</v>
       </c>
@@ -8198,10 +8558,10 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -8245,8 +8605,11 @@
       <c r="R120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>1655</v>
       </c>
@@ -8254,10 +8617,10 @@
         <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -8301,8 +8664,11 @@
       <c r="R121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>160</v>
       </c>
@@ -8310,10 +8676,10 @@
         <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -8357,8 +8723,11 @@
       <c r="R122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>243</v>
       </c>
@@ -8366,10 +8735,10 @@
         <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -8413,8 +8782,11 @@
       <c r="R123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>523</v>
       </c>
@@ -8422,10 +8794,10 @@
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -8469,8 +8841,11 @@
       <c r="R124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>72</v>
       </c>
@@ -8478,10 +8853,10 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -8525,8 +8900,11 @@
       <c r="R125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>244</v>
       </c>
@@ -8534,10 +8912,10 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -8581,8 +8959,11 @@
       <c r="R126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>396</v>
       </c>
@@ -8590,10 +8971,10 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -8637,8 +9018,11 @@
       <c r="R127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>397</v>
       </c>
@@ -8646,10 +9030,10 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -8693,8 +9077,11 @@
       <c r="R128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>246</v>
       </c>
@@ -8702,10 +9089,10 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -8749,8 +9136,11 @@
       <c r="R129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>74</v>
       </c>
@@ -8758,10 +9148,10 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8805,8 +9195,11 @@
       <c r="R130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>398</v>
       </c>
@@ -8814,10 +9207,10 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -8861,8 +9254,11 @@
       <c r="R131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>917</v>
       </c>
@@ -8870,10 +9266,10 @@
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -8917,8 +9313,11 @@
       <c r="R132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>1658</v>
       </c>
@@ -8926,10 +9325,10 @@
         <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -8973,8 +9372,11 @@
       <c r="R133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>399</v>
       </c>
@@ -8982,10 +9384,10 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -9029,8 +9431,11 @@
       <c r="R134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>163</v>
       </c>
@@ -9038,10 +9443,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9085,8 +9490,11 @@
       <c r="R135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>530</v>
       </c>
@@ -9094,10 +9502,10 @@
         <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -9141,8 +9549,11 @@
       <c r="R136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>794</v>
       </c>
@@ -9150,10 +9561,10 @@
         <v>30</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9197,8 +9608,11 @@
       <c r="R137">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>531</v>
       </c>
@@ -9206,10 +9620,10 @@
         <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9253,8 +9667,11 @@
       <c r="R138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>164</v>
       </c>
@@ -9262,10 +9679,10 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9309,8 +9726,11 @@
       <c r="R139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>1966</v>
       </c>
@@ -9318,10 +9738,10 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -9365,8 +9785,11 @@
       <c r="R140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>252</v>
       </c>
@@ -9374,10 +9797,10 @@
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -9421,8 +9844,11 @@
       <c r="R141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>797</v>
       </c>
@@ -9430,10 +9856,10 @@
         <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -9477,8 +9903,11 @@
       <c r="R142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>534</v>
       </c>
@@ -9486,10 +9915,10 @@
         <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -9533,8 +9962,11 @@
       <c r="R143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>798</v>
       </c>
@@ -9542,10 +9974,10 @@
         <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -9589,8 +10021,11 @@
       <c r="R144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>402</v>
       </c>
@@ -9598,10 +10033,10 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -9645,8 +10080,11 @@
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>1963</v>
       </c>
@@ -9654,10 +10092,10 @@
         <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -9701,8 +10139,11 @@
       <c r="R146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>1735</v>
       </c>
@@ -9710,10 +10151,10 @@
         <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D147" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -9757,8 +10198,11 @@
       <c r="R147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>1911</v>
       </c>
@@ -9766,10 +10210,10 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -9813,8 +10257,11 @@
       <c r="R148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>118</v>
       </c>
@@ -9822,10 +10269,10 @@
         <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -9869,8 +10316,11 @@
       <c r="R149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>405</v>
       </c>
@@ -9878,10 +10328,10 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -9925,8 +10375,11 @@
       <c r="R150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>1507</v>
       </c>
@@ -9934,10 +10387,10 @@
         <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -9981,8 +10434,11 @@
       <c r="R151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>321</v>
       </c>
@@ -9990,10 +10446,10 @@
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -10037,8 +10493,11 @@
       <c r="R152">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>406</v>
       </c>
@@ -10046,10 +10505,10 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -10093,8 +10552,11 @@
       <c r="R153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>677</v>
       </c>
@@ -10102,10 +10564,10 @@
         <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -10149,8 +10611,11 @@
       <c r="R154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>353</v>
       </c>
@@ -10158,10 +10623,10 @@
         <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -10205,8 +10670,11 @@
       <c r="R155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>1884</v>
       </c>
@@ -10214,10 +10682,10 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -10261,8 +10729,11 @@
       <c r="R156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>166</v>
       </c>
@@ -10270,10 +10741,10 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -10317,8 +10788,11 @@
       <c r="R157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>678</v>
       </c>
@@ -10326,10 +10800,10 @@
         <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -10373,8 +10847,11 @@
       <c r="R158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>537</v>
       </c>
@@ -10382,10 +10859,10 @@
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -10429,8 +10906,11 @@
       <c r="R159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>928</v>
       </c>
@@ -10438,10 +10918,10 @@
         <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -10485,8 +10965,11 @@
       <c r="R160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>1598</v>
       </c>
@@ -10494,10 +10977,10 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -10541,8 +11024,11 @@
       <c r="R161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>542</v>
       </c>
@@ -10550,10 +11036,10 @@
         <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -10597,8 +11083,11 @@
       <c r="R162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>1931</v>
       </c>
@@ -10606,10 +11095,10 @@
         <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -10653,8 +11142,11 @@
       <c r="R163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>1659</v>
       </c>
@@ -10662,10 +11154,10 @@
         <v>30</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -10709,8 +11201,11 @@
       <c r="R164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>1685</v>
       </c>
@@ -10718,10 +11213,10 @@
         <v>30</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -10765,8 +11260,11 @@
       <c r="R165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>882</v>
       </c>
@@ -10774,10 +11272,10 @@
         <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -10821,8 +11319,11 @@
       <c r="R166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
         <v>415</v>
       </c>
@@ -10830,10 +11331,10 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -10877,8 +11378,11 @@
       <c r="R167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
         <v>416</v>
       </c>
@@ -10886,10 +11390,10 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -10933,8 +11437,11 @@
       <c r="R168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="1">
         <v>1621</v>
       </c>
@@ -10942,10 +11449,10 @@
         <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -10989,8 +11496,11 @@
       <c r="R169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="1">
         <v>417</v>
       </c>
@@ -10998,10 +11508,10 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -11045,8 +11555,11 @@
       <c r="R170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="1">
         <v>80</v>
       </c>
@@ -11054,10 +11567,10 @@
         <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -11101,8 +11614,11 @@
       <c r="R171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="1">
         <v>546</v>
       </c>
@@ -11110,10 +11626,10 @@
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -11157,8 +11673,11 @@
       <c r="R172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="1">
         <v>547</v>
       </c>
@@ -11166,10 +11685,10 @@
         <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -11213,8 +11732,11 @@
       <c r="R173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="1">
         <v>1916</v>
       </c>
@@ -11222,10 +11744,10 @@
         <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -11269,8 +11791,11 @@
       <c r="R174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="1">
         <v>995</v>
       </c>
@@ -11278,10 +11803,10 @@
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -11325,8 +11850,11 @@
       <c r="R175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="1">
         <v>1640</v>
       </c>
@@ -11334,10 +11862,10 @@
         <v>31</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -11381,8 +11909,11 @@
       <c r="R176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="1">
         <v>327</v>
       </c>
@@ -11390,10 +11921,10 @@
         <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -11437,8 +11968,11 @@
       <c r="R177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="1">
         <v>1705</v>
       </c>
@@ -11446,10 +11980,10 @@
         <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -11493,8 +12027,11 @@
       <c r="R178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="1">
         <v>553</v>
       </c>
@@ -11502,10 +12039,10 @@
         <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -11549,8 +12086,11 @@
       <c r="R179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="1">
         <v>262</v>
       </c>
@@ -11558,10 +12098,10 @@
         <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -11605,8 +12145,11 @@
       <c r="R180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="1">
         <v>809</v>
       </c>
@@ -11614,10 +12157,10 @@
         <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -11661,8 +12204,11 @@
       <c r="R181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="1">
         <v>331</v>
       </c>
@@ -11670,10 +12216,10 @@
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -11717,8 +12263,11 @@
       <c r="R182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="1">
         <v>24</v>
       </c>
@@ -11726,10 +12275,10 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -11773,8 +12322,11 @@
       <c r="R183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="1">
         <v>168</v>
       </c>
@@ -11782,10 +12334,10 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -11829,8 +12381,11 @@
       <c r="R184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -11838,10 +12393,10 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -11885,8 +12440,11 @@
       <c r="R185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="1">
         <v>1641</v>
       </c>
@@ -11894,10 +12452,10 @@
         <v>31</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -11941,8 +12499,11 @@
       <c r="R186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="1">
         <v>556</v>
       </c>
@@ -11950,10 +12511,10 @@
         <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -11997,8 +12558,11 @@
       <c r="R187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="1">
         <v>935</v>
       </c>
@@ -12006,10 +12570,10 @@
         <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D188" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -12053,8 +12617,11 @@
       <c r="R188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="1">
         <v>420</v>
       </c>
@@ -12062,10 +12629,10 @@
         <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -12109,8 +12676,11 @@
       <c r="R189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="1">
         <v>938</v>
       </c>
@@ -12118,10 +12688,10 @@
         <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -12165,8 +12735,11 @@
       <c r="R190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="1">
         <v>1948</v>
       </c>
@@ -12174,10 +12747,10 @@
         <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -12221,8 +12794,11 @@
       <c r="R191">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="1">
         <v>119</v>
       </c>
@@ -12230,10 +12806,10 @@
         <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -12277,8 +12853,11 @@
       <c r="R192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="1">
         <v>687</v>
       </c>
@@ -12286,10 +12865,10 @@
         <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D193" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -12333,8 +12912,11 @@
       <c r="R193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="1">
         <v>1842</v>
       </c>
@@ -12342,10 +12924,10 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -12389,8 +12971,11 @@
       <c r="R194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="1">
         <v>1731</v>
       </c>
@@ -12398,10 +12983,10 @@
         <v>22</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -12445,8 +13030,11 @@
       <c r="R195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="1">
         <v>1952</v>
       </c>
@@ -12454,10 +13042,10 @@
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -12501,8 +13089,11 @@
       <c r="R196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="1">
         <v>815</v>
       </c>
@@ -12510,10 +13101,10 @@
         <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -12557,8 +13148,11 @@
       <c r="R197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="1">
         <v>1709</v>
       </c>
@@ -12566,10 +13160,10 @@
         <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -12613,8 +13207,11 @@
       <c r="R198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="1">
         <v>1978</v>
       </c>
@@ -12622,10 +13219,10 @@
         <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -12669,8 +13266,11 @@
       <c r="R199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="1">
         <v>1955</v>
       </c>
@@ -12678,10 +13278,10 @@
         <v>25</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -12725,8 +13325,11 @@
       <c r="R200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="1">
         <v>335</v>
       </c>
@@ -12734,10 +13337,10 @@
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D201" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -12781,8 +13384,11 @@
       <c r="R201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="1">
         <v>944</v>
       </c>
@@ -12790,10 +13396,10 @@
         <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -12837,8 +13443,11 @@
       <c r="R202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="1">
         <v>1740</v>
       </c>
@@ -12846,10 +13455,10 @@
         <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -12893,8 +13502,11 @@
       <c r="R203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="1">
         <v>946</v>
       </c>
@@ -12902,10 +13514,10 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -12949,8 +13561,11 @@
       <c r="R204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>356</v>
       </c>
@@ -12958,10 +13573,10 @@
         <v>26</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -13005,8 +13620,11 @@
       <c r="R205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="1">
         <v>569</v>
       </c>
@@ -13014,10 +13632,10 @@
         <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -13061,8 +13679,11 @@
       <c r="R206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="1">
         <v>267</v>
       </c>
@@ -13070,10 +13691,10 @@
         <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -13117,8 +13738,11 @@
       <c r="R207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="1">
         <v>268</v>
       </c>
@@ -13126,10 +13750,10 @@
         <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -13173,8 +13797,11 @@
       <c r="R208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="1">
         <v>1930</v>
       </c>
@@ -13182,10 +13809,10 @@
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -13229,8 +13856,11 @@
       <c r="R209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="1">
         <v>1970</v>
       </c>
@@ -13238,10 +13868,10 @@
         <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -13285,8 +13915,11 @@
       <c r="R210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="1">
         <v>1695</v>
       </c>
@@ -13294,10 +13927,10 @@
         <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -13341,8 +13974,11 @@
       <c r="R211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="1">
         <v>1699</v>
       </c>
@@ -13350,10 +13986,10 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -13397,8 +14033,11 @@
       <c r="R212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
       <c r="A213" s="1">
         <v>171</v>
       </c>
@@ -13406,10 +14045,10 @@
         <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D213" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -13453,8 +14092,11 @@
       <c r="R213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="1">
         <v>575</v>
       </c>
@@ -13462,10 +14104,10 @@
         <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -13509,8 +14151,11 @@
       <c r="R214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="1">
         <v>820</v>
       </c>
@@ -13518,10 +14163,10 @@
         <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -13565,8 +14210,11 @@
       <c r="R215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="1">
         <v>302</v>
       </c>
@@ -13574,10 +14222,10 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -13621,8 +14269,11 @@
       <c r="R216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="S216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
       <c r="A217" s="1">
         <v>579</v>
       </c>
@@ -13630,10 +14281,10 @@
         <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -13677,8 +14328,11 @@
       <c r="R217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="S217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
       <c r="A218" s="1">
         <v>823</v>
       </c>
@@ -13686,10 +14340,10 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -13733,8 +14387,11 @@
       <c r="R218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="S218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
       <c r="A219" s="1">
         <v>824</v>
       </c>
@@ -13742,10 +14399,10 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -13789,8 +14446,11 @@
       <c r="R219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="S219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
       <c r="A220" s="1">
         <v>1895</v>
       </c>
@@ -13798,10 +14458,10 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -13845,8 +14505,11 @@
       <c r="R220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="S220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
       <c r="A221" s="1">
         <v>269</v>
       </c>
@@ -13854,10 +14517,10 @@
         <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -13901,8 +14564,11 @@
       <c r="R221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="S221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
       <c r="A222" s="1">
         <v>173</v>
       </c>
@@ -13910,10 +14576,10 @@
         <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D222" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -13957,8 +14623,11 @@
       <c r="R222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="S222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
       <c r="A223" s="1">
         <v>1773</v>
       </c>
@@ -13966,10 +14635,10 @@
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D223" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -14013,8 +14682,11 @@
       <c r="R223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="S223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
       <c r="A224" s="1">
         <v>175</v>
       </c>
@@ -14022,10 +14694,10 @@
         <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -14069,8 +14741,11 @@
       <c r="R224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
       <c r="A225" s="1">
         <v>1586</v>
       </c>
@@ -14078,10 +14753,10 @@
         <v>25</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -14125,8 +14800,11 @@
       <c r="R225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
       <c r="A226" s="1">
         <v>826</v>
       </c>
@@ -14134,10 +14812,10 @@
         <v>30</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -14181,8 +14859,11 @@
       <c r="R226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
       <c r="A227" s="1">
         <v>85</v>
       </c>
@@ -14190,10 +14871,10 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -14237,8 +14918,11 @@
       <c r="R227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="S227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
       <c r="A228" s="1">
         <v>431</v>
       </c>
@@ -14246,10 +14930,10 @@
         <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -14293,8 +14977,11 @@
       <c r="R228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="S228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
       <c r="A229" s="1">
         <v>432</v>
       </c>
@@ -14302,10 +14989,10 @@
         <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -14349,8 +15036,11 @@
       <c r="R229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="S229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
       <c r="A230" s="1">
         <v>86</v>
       </c>
@@ -14358,10 +15048,10 @@
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -14405,8 +15095,11 @@
       <c r="R230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="S230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
       <c r="A231" s="1">
         <v>828</v>
       </c>
@@ -14414,10 +15107,10 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D231" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -14461,8 +15154,11 @@
       <c r="R231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
       <c r="A232" s="1">
         <v>1509</v>
       </c>
@@ -14470,10 +15166,10 @@
         <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -14517,8 +15213,11 @@
       <c r="R232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="S232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
       <c r="A233" s="1">
         <v>437</v>
       </c>
@@ -14526,10 +15225,10 @@
         <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -14573,8 +15272,11 @@
       <c r="R233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="S233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234" s="1">
         <v>589</v>
       </c>
@@ -14582,10 +15284,10 @@
         <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -14629,8 +15331,11 @@
       <c r="R234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235" s="1">
         <v>1734</v>
       </c>
@@ -14638,10 +15343,10 @@
         <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -14685,8 +15390,11 @@
       <c r="R235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="S235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236" s="1">
         <v>590</v>
       </c>
@@ -14694,10 +15402,10 @@
         <v>28</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -14741,8 +15449,11 @@
       <c r="R236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
       <c r="A237" s="1">
         <v>1894</v>
       </c>
@@ -14750,10 +15461,10 @@
         <v>31</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -14797,8 +15508,11 @@
       <c r="R237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:18">
+      <c r="S237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
       <c r="A238" s="1">
         <v>765</v>
       </c>
@@ -14806,10 +15520,10 @@
         <v>20</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -14853,8 +15567,11 @@
       <c r="R238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:18">
+      <c r="S238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
       <c r="A239" s="1">
         <v>1926</v>
       </c>
@@ -14862,10 +15579,10 @@
         <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -14909,8 +15626,11 @@
       <c r="R239">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
       <c r="A240" s="1">
         <v>439</v>
       </c>
@@ -14918,10 +15638,10 @@
         <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -14965,8 +15685,11 @@
       <c r="R240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:18">
+      <c r="S240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19">
       <c r="A241" s="1">
         <v>273</v>
       </c>
@@ -14974,10 +15697,10 @@
         <v>25</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -15021,8 +15744,11 @@
       <c r="R241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19">
       <c r="A242" s="1">
         <v>177</v>
       </c>
@@ -15030,10 +15756,10 @@
         <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -15077,8 +15803,11 @@
       <c r="R242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="S242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19">
       <c r="A243" s="1">
         <v>703</v>
       </c>
@@ -15086,10 +15815,10 @@
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -15133,8 +15862,11 @@
       <c r="R243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19">
       <c r="A244" s="1">
         <v>274</v>
       </c>
@@ -15142,10 +15874,10 @@
         <v>25</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -15189,8 +15921,11 @@
       <c r="R244">
         <v>7</v>
       </c>
-    </row>
-    <row r="245" spans="1:18">
+      <c r="S244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19">
       <c r="A245" s="1">
         <v>339</v>
       </c>
@@ -15198,10 +15933,10 @@
         <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D245" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -15245,8 +15980,11 @@
       <c r="R245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
       <c r="A246" s="1">
         <v>1667</v>
       </c>
@@ -15254,10 +15992,10 @@
         <v>30</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -15301,8 +16039,11 @@
       <c r="R246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19">
       <c r="A247" s="1">
         <v>275</v>
       </c>
@@ -15310,10 +16051,10 @@
         <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D247" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -15357,8 +16098,11 @@
       <c r="R247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:18">
+      <c r="S247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19">
       <c r="A248" s="1">
         <v>340</v>
       </c>
@@ -15366,10 +16110,10 @@
         <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D248" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -15413,8 +16157,11 @@
       <c r="R248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19">
       <c r="A249" s="1">
         <v>597</v>
       </c>
@@ -15422,10 +16169,10 @@
         <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -15469,8 +16216,11 @@
       <c r="R249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:18">
+      <c r="S249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19">
       <c r="A250" s="1">
         <v>1742</v>
       </c>
@@ -15478,10 +16228,10 @@
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -15525,8 +16275,11 @@
       <c r="R250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19">
       <c r="A251" s="1">
         <v>603</v>
       </c>
@@ -15534,10 +16287,10 @@
         <v>28</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -15581,8 +16334,11 @@
       <c r="R251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:18">
+      <c r="S251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19">
       <c r="A252" s="1">
         <v>1669</v>
       </c>
@@ -15590,10 +16346,10 @@
         <v>31</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D252" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -15637,8 +16393,11 @@
       <c r="R252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:18">
+      <c r="S252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19">
       <c r="A253" s="1">
         <v>957</v>
       </c>
@@ -15646,10 +16405,10 @@
         <v>31</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -15693,8 +16452,11 @@
       <c r="R253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19">
       <c r="A254" s="1">
         <v>1674</v>
       </c>
@@ -15702,10 +16464,10 @@
         <v>30</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -15749,8 +16511,11 @@
       <c r="R254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19">
       <c r="A255" s="1">
         <v>599</v>
       </c>
@@ -15758,10 +16523,10 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -15805,8 +16570,11 @@
       <c r="R255">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:18">
+      <c r="S255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
       <c r="A256" s="1">
         <v>277</v>
       </c>
@@ -15814,10 +16582,10 @@
         <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D256" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -15861,8 +16629,11 @@
       <c r="R256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:18">
+      <c r="S256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19">
       <c r="A257" s="1">
         <v>840</v>
       </c>
@@ -15870,10 +16641,10 @@
         <v>30</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -15917,8 +16688,11 @@
       <c r="R257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:18">
+      <c r="S257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19">
       <c r="A258" s="1">
         <v>441</v>
       </c>
@@ -15926,10 +16700,10 @@
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -15973,8 +16747,11 @@
       <c r="R258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:18">
+      <c r="S258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19">
       <c r="A259" s="1">
         <v>279</v>
       </c>
@@ -15982,10 +16759,10 @@
         <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D259" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -16029,8 +16806,11 @@
       <c r="R259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:18">
+      <c r="S259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19">
       <c r="A260" s="1">
         <v>606</v>
       </c>
@@ -16038,10 +16818,10 @@
         <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -16085,8 +16865,11 @@
       <c r="R260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:18">
+      <c r="S260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19">
       <c r="A261" s="1">
         <v>88</v>
       </c>
@@ -16094,10 +16877,10 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -16141,8 +16924,11 @@
       <c r="R261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:18">
+      <c r="S261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19">
       <c r="A262" s="1">
         <v>1676</v>
       </c>
@@ -16150,10 +16936,10 @@
         <v>29</v>
       </c>
       <c r="C262" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D262" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -16197,8 +16983,11 @@
       <c r="R262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:18">
+      <c r="S262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19">
       <c r="A263" s="1">
         <v>965</v>
       </c>
@@ -16206,10 +16995,10 @@
         <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -16253,8 +17042,11 @@
       <c r="R263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:18">
+      <c r="S263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19">
       <c r="A264" s="1">
         <v>1702</v>
       </c>
@@ -16262,10 +17054,10 @@
         <v>30</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -16309,8 +17101,11 @@
       <c r="R264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:18">
+      <c r="S264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19">
       <c r="A265" s="1">
         <v>845</v>
       </c>
@@ -16318,10 +17113,10 @@
         <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D265" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -16365,8 +17160,11 @@
       <c r="R265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:18">
+      <c r="S265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19">
       <c r="A266" s="1">
         <v>1883</v>
       </c>
@@ -16374,10 +17172,10 @@
         <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -16421,8 +17219,11 @@
       <c r="R266">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:18">
+      <c r="S266">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19">
       <c r="A267" s="1">
         <v>610</v>
       </c>
@@ -16430,10 +17231,10 @@
         <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -16477,8 +17278,11 @@
       <c r="R267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:18">
+      <c r="S267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19">
       <c r="A268" s="1">
         <v>1714</v>
       </c>
@@ -16486,10 +17290,10 @@
         <v>29</v>
       </c>
       <c r="C268" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -16533,8 +17337,11 @@
       <c r="R268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:18">
+      <c r="S268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19">
       <c r="A269" s="1">
         <v>90</v>
       </c>
@@ -16542,10 +17349,10 @@
         <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -16589,8 +17396,11 @@
       <c r="R269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:18">
+      <c r="S269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19">
       <c r="A270" s="1">
         <v>342</v>
       </c>
@@ -16598,10 +17408,10 @@
         <v>26</v>
       </c>
       <c r="C270" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D270" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -16645,8 +17455,11 @@
       <c r="R270">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:18">
+      <c r="S270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19">
       <c r="A271" s="1">
         <v>847</v>
       </c>
@@ -16654,10 +17467,10 @@
         <v>30</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D271" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -16701,8 +17514,11 @@
       <c r="R271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:18">
+      <c r="S271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19">
       <c r="A272" s="1">
         <v>848</v>
       </c>
@@ -16710,10 +17526,10 @@
         <v>30</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D272" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -16757,8 +17573,11 @@
       <c r="R272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:18">
+      <c r="S272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19">
       <c r="A273" s="1">
         <v>37</v>
       </c>
@@ -16766,10 +17585,10 @@
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D273" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -16813,8 +17632,11 @@
       <c r="R273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:18">
+      <c r="S273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19">
       <c r="A274" s="1">
         <v>180</v>
       </c>
@@ -16822,10 +17644,10 @@
         <v>23</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D274" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -16869,8 +17691,11 @@
       <c r="R274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:18">
+      <c r="S274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19">
       <c r="A275" s="1">
         <v>532</v>
       </c>
@@ -16878,10 +17703,10 @@
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -16925,8 +17750,11 @@
       <c r="R275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:18">
+      <c r="S275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19">
       <c r="A276" s="1">
         <v>851</v>
       </c>
@@ -16934,10 +17762,10 @@
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D276" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -16981,8 +17809,11 @@
       <c r="R276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:18">
+      <c r="S276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19">
       <c r="A277" s="1">
         <v>1708</v>
       </c>
@@ -16990,10 +17821,10 @@
         <v>23</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -17037,8 +17868,11 @@
       <c r="R277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:18">
+      <c r="S277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19">
       <c r="A278" s="1">
         <v>971</v>
       </c>
@@ -17046,10 +17880,10 @@
         <v>31</v>
       </c>
       <c r="C278" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D278" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -17093,8 +17927,11 @@
       <c r="R278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:18">
+      <c r="S278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19">
       <c r="A279" s="1">
         <v>1904</v>
       </c>
@@ -17102,10 +17939,10 @@
         <v>26</v>
       </c>
       <c r="C279" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D279" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -17149,8 +17986,11 @@
       <c r="R279">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:18">
+      <c r="S279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19">
       <c r="A280" s="1">
         <v>1900</v>
       </c>
@@ -17158,10 +17998,10 @@
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D280" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -17205,8 +18045,11 @@
       <c r="R280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:18">
+      <c r="S280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19">
       <c r="A281" s="1">
         <v>715</v>
       </c>
@@ -17214,10 +18057,10 @@
         <v>29</v>
       </c>
       <c r="C281" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D281" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -17261,8 +18104,11 @@
       <c r="R281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:18">
+      <c r="S281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19">
       <c r="A282" s="1">
         <v>93</v>
       </c>
@@ -17270,10 +18116,10 @@
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -17317,8 +18163,11 @@
       <c r="R282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:18">
+      <c r="S282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19">
       <c r="A283" s="1">
         <v>448</v>
       </c>
@@ -17326,10 +18175,10 @@
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -17373,8 +18222,11 @@
       <c r="R283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:18">
+      <c r="S283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19">
       <c r="A284" s="1">
         <v>1525</v>
       </c>
@@ -17382,10 +18234,10 @@
         <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D284" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -17429,8 +18281,11 @@
       <c r="R284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285" s="1">
         <v>716</v>
       </c>
@@ -17438,10 +18293,10 @@
         <v>29</v>
       </c>
       <c r="C285" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D285" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -17485,8 +18340,11 @@
       <c r="R285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19">
       <c r="A286" s="1">
         <v>281</v>
       </c>
@@ -17494,10 +18352,10 @@
         <v>25</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -17541,8 +18399,11 @@
       <c r="R286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287" s="1">
         <v>855</v>
       </c>
@@ -17550,10 +18411,10 @@
         <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -17597,8 +18458,11 @@
       <c r="R287">
         <v>42</v>
       </c>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
       <c r="A288" s="1">
         <v>183</v>
       </c>
@@ -17606,10 +18470,10 @@
         <v>23</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D288" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -17653,8 +18517,11 @@
       <c r="R288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:18">
+      <c r="S288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19">
       <c r="A289" s="1">
         <v>1700</v>
       </c>
@@ -17662,10 +18529,10 @@
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D289" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -17709,8 +18576,11 @@
       <c r="R289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:18">
+      <c r="S289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19">
       <c r="A290" s="1">
         <v>1730</v>
       </c>
@@ -17718,10 +18588,10 @@
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -17765,8 +18635,11 @@
       <c r="R290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:18">
+      <c r="S290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19">
       <c r="A291" s="1">
         <v>737</v>
       </c>
@@ -17774,10 +18647,10 @@
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -17821,8 +18694,11 @@
       <c r="R291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:18">
+      <c r="S291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19">
       <c r="A292" s="1">
         <v>856</v>
       </c>
@@ -17830,10 +18706,10 @@
         <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D292" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -17877,8 +18753,11 @@
       <c r="R292">
         <v>18</v>
       </c>
-    </row>
-    <row r="293" spans="1:18">
+      <c r="S292">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19">
       <c r="A293" s="1">
         <v>450</v>
       </c>
@@ -17886,10 +18765,10 @@
         <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -17933,8 +18812,11 @@
       <c r="R293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:18">
+      <c r="S293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19">
       <c r="A294" s="1">
         <v>451</v>
       </c>
@@ -17942,10 +18824,10 @@
         <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -17989,8 +18871,11 @@
       <c r="R294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:18">
+      <c r="S294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19">
       <c r="A295" s="1">
         <v>184</v>
       </c>
@@ -17998,10 +18883,10 @@
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D295" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -18045,8 +18930,11 @@
       <c r="R295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:18">
+      <c r="S295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19">
       <c r="A296" s="1">
         <v>344</v>
       </c>
@@ -18054,10 +18942,10 @@
         <v>26</v>
       </c>
       <c r="C296" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -18101,8 +18989,11 @@
       <c r="R296">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="1:18">
+      <c r="S296">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19">
       <c r="A297" s="1">
         <v>1581</v>
       </c>
@@ -18110,10 +19001,10 @@
         <v>26</v>
       </c>
       <c r="C297" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D297" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -18157,8 +19048,11 @@
       <c r="R297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:18">
+      <c r="S297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19">
       <c r="A298" s="1">
         <v>981</v>
       </c>
@@ -18166,10 +19060,10 @@
         <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D298" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -18213,8 +19107,11 @@
       <c r="R298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="S298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19">
       <c r="A299" s="1">
         <v>994</v>
       </c>
@@ -18222,10 +19119,10 @@
         <v>31</v>
       </c>
       <c r="C299" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D299" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -18269,8 +19166,11 @@
       <c r="R299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:18">
+      <c r="S299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19">
       <c r="A300" s="1">
         <v>858</v>
       </c>
@@ -18278,10 +19178,10 @@
         <v>30</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -18325,8 +19225,11 @@
       <c r="R300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:18">
+      <c r="S300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19">
       <c r="A301" s="1">
         <v>47</v>
       </c>
@@ -18334,10 +19237,10 @@
         <v>20</v>
       </c>
       <c r="C301" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D301" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -18381,8 +19284,11 @@
       <c r="R301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:18">
+      <c r="S301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19">
       <c r="A302" s="1">
         <v>345</v>
       </c>
@@ -18390,10 +19296,10 @@
         <v>26</v>
       </c>
       <c r="C302" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D302" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -18437,8 +19343,11 @@
       <c r="R302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:18">
+      <c r="S302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19">
       <c r="A303" s="1">
         <v>717</v>
       </c>
@@ -18446,10 +19355,10 @@
         <v>29</v>
       </c>
       <c r="C303" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D303" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -18493,8 +19402,11 @@
       <c r="R303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:18">
+      <c r="S303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19">
       <c r="A304" s="1">
         <v>861</v>
       </c>
@@ -18502,10 +19414,10 @@
         <v>30</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D304" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -18549,8 +19461,11 @@
       <c r="R304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:18">
+      <c r="S304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19">
       <c r="A305" s="1">
         <v>453</v>
       </c>
@@ -18558,10 +19473,10 @@
         <v>27</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -18605,8 +19520,11 @@
       <c r="R305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:18">
+      <c r="S305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19">
       <c r="A306" s="1">
         <v>983</v>
       </c>
@@ -18614,10 +19532,10 @@
         <v>31</v>
       </c>
       <c r="C306" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -18661,8 +19579,11 @@
       <c r="R306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:18">
+      <c r="S306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
       <c r="A307" s="1">
         <v>984</v>
       </c>
@@ -18670,10 +19591,10 @@
         <v>31</v>
       </c>
       <c r="C307" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D307" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -18717,8 +19638,11 @@
       <c r="R307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:18">
+      <c r="S307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
       <c r="A308" s="1">
         <v>1961</v>
       </c>
@@ -18726,10 +19650,10 @@
         <v>26</v>
       </c>
       <c r="C308" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D308" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -18773,8 +19697,11 @@
       <c r="R308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:18">
+      <c r="S308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19">
       <c r="A309" s="1">
         <v>622</v>
       </c>
@@ -18782,10 +19709,10 @@
         <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -18829,8 +19756,11 @@
       <c r="R309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:18">
+      <c r="S309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19">
       <c r="A310" s="1">
         <v>96</v>
       </c>
@@ -18838,10 +19768,10 @@
         <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -18885,8 +19815,11 @@
       <c r="R310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:18">
+      <c r="S310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19">
       <c r="A311" s="1">
         <v>718</v>
       </c>
@@ -18894,10 +19827,10 @@
         <v>29</v>
       </c>
       <c r="C311" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D311" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -18941,8 +19874,11 @@
       <c r="R311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:18">
+      <c r="S311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19">
       <c r="A312" s="1">
         <v>986</v>
       </c>
@@ -18950,10 +19886,10 @@
         <v>31</v>
       </c>
       <c r="C312" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D312" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -18997,8 +19933,11 @@
       <c r="R312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:18">
+      <c r="S312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19">
       <c r="A313" s="1">
         <v>626</v>
       </c>
@@ -19006,10 +19945,10 @@
         <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D313" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -19053,8 +19992,11 @@
       <c r="R313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:18">
+      <c r="S313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19">
       <c r="A314" s="1">
         <v>285</v>
       </c>
@@ -19062,10 +20004,10 @@
         <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D314" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -19109,8 +20051,11 @@
       <c r="R314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:18">
+      <c r="S314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19">
       <c r="A315" s="1">
         <v>865</v>
       </c>
@@ -19118,10 +20063,10 @@
         <v>30</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -19165,8 +20110,11 @@
       <c r="R315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:18">
+      <c r="S315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19">
       <c r="A316" s="1">
         <v>1949</v>
       </c>
@@ -19174,10 +20122,10 @@
         <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D316" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -19221,8 +20169,11 @@
       <c r="R316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:18">
+      <c r="S316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19">
       <c r="A317" s="1">
         <v>866</v>
       </c>
@@ -19230,10 +20181,10 @@
         <v>30</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D317" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -19277,8 +20228,11 @@
       <c r="R317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:18">
+      <c r="S317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19">
       <c r="A318" s="1">
         <v>867</v>
       </c>
@@ -19286,10 +20240,10 @@
         <v>30</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -19333,8 +20287,11 @@
       <c r="R318">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:18">
+      <c r="S318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
       <c r="A319" s="1">
         <v>627</v>
       </c>
@@ -19342,10 +20299,10 @@
         <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D319" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -19389,8 +20346,11 @@
       <c r="R319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:18">
+      <c r="S319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
       <c r="A320" s="1">
         <v>289</v>
       </c>
@@ -19398,10 +20358,10 @@
         <v>25</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D320" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -19445,8 +20405,11 @@
       <c r="R320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:18">
+      <c r="S320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
       <c r="A321" s="1">
         <v>629</v>
       </c>
@@ -19454,10 +20417,10 @@
         <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -19501,8 +20464,11 @@
       <c r="R321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:18">
+      <c r="S321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
       <c r="A322" s="1">
         <v>852</v>
       </c>
@@ -19510,10 +20476,10 @@
         <v>27</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -19557,8 +20523,11 @@
       <c r="R322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:18">
+      <c r="S322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
       <c r="A323" s="1">
         <v>988</v>
       </c>
@@ -19566,10 +20535,10 @@
         <v>31</v>
       </c>
       <c r="C323" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D323" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -19613,8 +20582,11 @@
       <c r="R323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:18">
+      <c r="S323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
       <c r="A324" s="1">
         <v>457</v>
       </c>
@@ -19622,10 +20594,10 @@
         <v>27</v>
       </c>
       <c r="C324" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -19669,8 +20641,11 @@
       <c r="R324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:18">
+      <c r="S324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
       <c r="A325" s="1">
         <v>1960</v>
       </c>
@@ -19678,10 +20653,10 @@
         <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -19725,8 +20700,11 @@
       <c r="R325">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:18">
+      <c r="S325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
       <c r="A326" s="1">
         <v>668</v>
       </c>
@@ -19734,10 +20712,10 @@
         <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D326" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -19781,8 +20759,11 @@
       <c r="R326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:18">
+      <c r="S326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
       <c r="A327" s="1">
         <v>1969</v>
       </c>
@@ -19790,10 +20771,10 @@
         <v>20</v>
       </c>
       <c r="C327" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D327" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -19837,8 +20818,11 @@
       <c r="R327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:18">
+      <c r="S327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
       <c r="A328" s="1">
         <v>1701</v>
       </c>
@@ -19846,10 +20830,10 @@
         <v>22</v>
       </c>
       <c r="C328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D328" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -19893,8 +20877,11 @@
       <c r="R328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:18">
+      <c r="S328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
       <c r="A329" s="1">
         <v>293</v>
       </c>
@@ -19902,10 +20889,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -19949,8 +20936,11 @@
       <c r="R329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:18">
+      <c r="S329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
       <c r="A330" s="1">
         <v>1950</v>
       </c>
@@ -19958,10 +20948,10 @@
         <v>20</v>
       </c>
       <c r="C330" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D330" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -20005,8 +20995,11 @@
       <c r="R330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:18">
+      <c r="S330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
       <c r="A331" s="1">
         <v>1783</v>
       </c>
@@ -20014,10 +21007,10 @@
         <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D331" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -20061,8 +21054,11 @@
       <c r="R331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:18">
+      <c r="S331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
       <c r="A332" s="1">
         <v>98</v>
       </c>
@@ -20070,10 +21066,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -20117,8 +21113,11 @@
       <c r="R332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:18">
+      <c r="S332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
       <c r="A333" s="1">
         <v>614</v>
       </c>
@@ -20126,10 +21125,10 @@
         <v>28</v>
       </c>
       <c r="C333" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D333" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -20173,8 +21172,11 @@
       <c r="R333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:18">
+      <c r="S333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
       <c r="A334" s="1">
         <v>189</v>
       </c>
@@ -20182,10 +21184,10 @@
         <v>23</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D334" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -20229,8 +21231,11 @@
       <c r="R334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:18">
+      <c r="S334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
       <c r="A335" s="1">
         <v>296</v>
       </c>
@@ -20238,10 +21243,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -20285,8 +21290,11 @@
       <c r="R335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:18">
+      <c r="S335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19">
       <c r="A336" s="1">
         <v>1696</v>
       </c>
@@ -20294,10 +21302,10 @@
         <v>27</v>
       </c>
       <c r="C336" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D336" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -20341,8 +21349,11 @@
       <c r="R336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:18">
+      <c r="S336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
       <c r="A337" s="1">
         <v>352</v>
       </c>
@@ -20350,10 +21361,10 @@
         <v>26</v>
       </c>
       <c r="C337" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D337" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -20397,8 +21408,11 @@
       <c r="R337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:18">
+      <c r="S337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19">
       <c r="A338" s="1">
         <v>294</v>
       </c>
@@ -20406,10 +21420,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -20453,8 +21467,11 @@
       <c r="R338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:18">
+      <c r="S338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19">
       <c r="A339" s="1">
         <v>873</v>
       </c>
@@ -20462,10 +21479,10 @@
         <v>30</v>
       </c>
       <c r="C339" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D339" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -20509,8 +21526,11 @@
       <c r="R339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:18">
+      <c r="S339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19">
       <c r="A340" s="1">
         <v>632</v>
       </c>
@@ -20518,10 +21538,10 @@
         <v>26</v>
       </c>
       <c r="C340" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D340" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -20565,8 +21585,11 @@
       <c r="R340">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:18">
+      <c r="S340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19">
       <c r="A341" s="1">
         <v>880</v>
       </c>
@@ -20574,10 +21597,10 @@
         <v>27</v>
       </c>
       <c r="C341" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -20621,8 +21644,11 @@
       <c r="R341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:18">
+      <c r="S341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19">
       <c r="A342" s="1">
         <v>351</v>
       </c>
@@ -20630,10 +21656,10 @@
         <v>26</v>
       </c>
       <c r="C342" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D342" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -20677,8 +21703,11 @@
       <c r="R342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:18">
+      <c r="S342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
       <c r="A343" s="1">
         <v>479</v>
       </c>
@@ -20686,10 +21715,10 @@
         <v>27</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -20733,8 +21762,11 @@
       <c r="R343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:18">
+      <c r="S343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
       <c r="A344" s="1">
         <v>297</v>
       </c>
@@ -20742,10 +21774,10 @@
         <v>25</v>
       </c>
       <c r="C344" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D344" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -20789,8 +21821,11 @@
       <c r="R344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:18">
+      <c r="S344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
       <c r="A345" s="1">
         <v>473</v>
       </c>
@@ -20798,10 +21833,10 @@
         <v>27</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -20845,8 +21880,11 @@
       <c r="R345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:18">
+      <c r="S345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
       <c r="A346" s="1">
         <v>50</v>
       </c>
@@ -20854,10 +21892,10 @@
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D346" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -20901,8 +21939,11 @@
       <c r="R346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:18">
+      <c r="S346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
       <c r="A347" s="1">
         <v>355</v>
       </c>
@@ -20910,10 +21951,10 @@
         <v>26</v>
       </c>
       <c r="C347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D347" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -20957,8 +21998,11 @@
       <c r="R347">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:18">
+      <c r="S347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348" s="1">
         <v>299</v>
       </c>
@@ -20966,10 +22010,10 @@
         <v>25</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -21013,8 +22057,11 @@
       <c r="R348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:18">
+      <c r="S348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
       <c r="A349" s="1">
         <v>637</v>
       </c>
@@ -21022,10 +22069,10 @@
         <v>28</v>
       </c>
       <c r="C349" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D349" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -21069,8 +22116,11 @@
       <c r="R349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:18">
+      <c r="S349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
       <c r="A350" s="1">
         <v>638</v>
       </c>
@@ -21078,10 +22128,10 @@
         <v>28</v>
       </c>
       <c r="C350" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D350" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -21125,8 +22175,11 @@
       <c r="R350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:18">
+      <c r="S350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19">
       <c r="A351" s="1">
         <v>1892</v>
       </c>
@@ -21134,10 +22187,10 @@
         <v>28</v>
       </c>
       <c r="C351" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D351" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -21181,8 +22234,11 @@
       <c r="R351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:18">
+      <c r="S351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19">
       <c r="A352" s="1">
         <v>879</v>
       </c>
@@ -21190,10 +22246,10 @@
         <v>30</v>
       </c>
       <c r="C352" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D352" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -21237,8 +22293,11 @@
       <c r="R352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:18">
+      <c r="S352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19">
       <c r="A353" s="1">
         <v>301</v>
       </c>
@@ -21246,10 +22305,10 @@
         <v>25</v>
       </c>
       <c r="C353" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -21293,8 +22352,11 @@
       <c r="R353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:18">
+      <c r="S353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19">
       <c r="A354" s="1">
         <v>1896</v>
       </c>
@@ -21302,10 +22364,10 @@
         <v>23</v>
       </c>
       <c r="C354" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D354" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -21349,8 +22411,11 @@
       <c r="R354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:18">
+      <c r="S354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19">
       <c r="A355" s="1">
         <v>642</v>
       </c>
@@ -21358,10 +22423,10 @@
         <v>28</v>
       </c>
       <c r="C355" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D355" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -21405,8 +22470,11 @@
       <c r="R355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:18">
+      <c r="S355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19">
       <c r="A356" s="1">
         <v>193</v>
       </c>
@@ -21414,10 +22482,10 @@
         <v>23</v>
       </c>
       <c r="C356" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D356" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -21459,6 +22527,9 @@
         <v>1</v>
       </c>
       <c r="R356">
+        <v>2</v>
+      </c>
+      <c r="S356">
         <v>2</v>
       </c>
     </row>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="385">
   <si>
     <t>Provinciecode</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>12-03-2020</t>
+  </si>
+  <si>
+    <t>13-03-2020</t>
   </si>
   <si>
     <t>gemeente_id</t>
@@ -1523,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S356"/>
+  <dimension ref="A1:T356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1587,8 +1590,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>518</v>
       </c>
@@ -1596,10 +1602,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1646,8 +1652,11 @@
       <c r="S2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>796</v>
       </c>
@@ -1655,10 +1664,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1705,8 +1714,11 @@
       <c r="S3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>1680</v>
       </c>
@@ -1714,10 +1726,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1764,8 +1776,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>358</v>
       </c>
@@ -1773,10 +1788,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1823,8 +1838,11 @@
       <c r="S5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>197</v>
       </c>
@@ -1832,10 +1850,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1882,8 +1900,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>59</v>
       </c>
@@ -1891,10 +1912,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1941,8 +1962,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>482</v>
       </c>
@@ -1950,10 +1974,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2000,8 +2024,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>613</v>
       </c>
@@ -2009,10 +2036,10 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2059,8 +2086,11 @@
       <c r="S9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>361</v>
       </c>
@@ -2068,10 +2098,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2118,8 +2148,11 @@
       <c r="S10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>141</v>
       </c>
@@ -2127,10 +2160,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2177,8 +2210,11 @@
       <c r="S11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -2186,10 +2222,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2236,8 +2272,11 @@
       <c r="S12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>484</v>
       </c>
@@ -2245,10 +2284,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2295,8 +2334,11 @@
       <c r="S13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>1723</v>
       </c>
@@ -2304,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2354,8 +2396,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>1959</v>
       </c>
@@ -2363,10 +2408,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2413,8 +2458,11 @@
       <c r="S15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -2422,10 +2470,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2472,8 +2520,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>307</v>
       </c>
@@ -2481,10 +2532,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2531,8 +2582,11 @@
       <c r="S17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>362</v>
       </c>
@@ -2540,10 +2594,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2590,8 +2644,11 @@
       <c r="S18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>363</v>
       </c>
@@ -2599,10 +2656,10 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2649,8 +2706,11 @@
       <c r="S19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -2658,10 +2718,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2708,8 +2768,11 @@
       <c r="S20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -2717,10 +2780,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2767,8 +2830,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -2776,10 +2842,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2826,8 +2892,11 @@
       <c r="S22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>106</v>
       </c>
@@ -2835,10 +2904,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2885,8 +2954,11 @@
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>743</v>
       </c>
@@ -2894,10 +2966,10 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2944,8 +3016,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>744</v>
       </c>
@@ -2953,10 +3028,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3003,8 +3078,11 @@
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>308</v>
       </c>
@@ -3012,10 +3090,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3062,8 +3140,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>489</v>
       </c>
@@ -3071,10 +3152,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3121,8 +3202,11 @@
       <c r="S27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>203</v>
       </c>
@@ -3130,10 +3214,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3180,8 +3264,11 @@
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>888</v>
       </c>
@@ -3189,10 +3276,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3239,8 +3326,11 @@
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>1954</v>
       </c>
@@ -3248,10 +3338,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3298,8 +3388,11 @@
       <c r="S30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>370</v>
       </c>
@@ -3307,10 +3400,10 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3357,8 +3450,11 @@
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>889</v>
       </c>
@@ -3366,10 +3462,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3416,8 +3512,11 @@
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>1945</v>
       </c>
@@ -3425,10 +3524,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3475,8 +3574,11 @@
       <c r="S33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>1724</v>
       </c>
@@ -3484,10 +3586,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3534,8 +3636,11 @@
       <c r="S34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>893</v>
       </c>
@@ -3543,10 +3648,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3593,8 +3698,11 @@
       <c r="S35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>373</v>
       </c>
@@ -3602,10 +3710,10 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3652,8 +3760,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>748</v>
       </c>
@@ -3661,10 +3772,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3711,8 +3822,11 @@
       <c r="S37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>1859</v>
       </c>
@@ -3720,10 +3834,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3770,8 +3884,11 @@
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>1721</v>
       </c>
@@ -3779,10 +3896,10 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3829,8 +3946,11 @@
       <c r="S39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>753</v>
       </c>
@@ -3838,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3888,8 +4008,11 @@
       <c r="S40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>209</v>
       </c>
@@ -3897,10 +4020,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3947,8 +4070,11 @@
       <c r="S41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>375</v>
       </c>
@@ -3956,10 +4082,10 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4006,8 +4132,11 @@
       <c r="S42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>1728</v>
       </c>
@@ -4015,10 +4144,10 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4065,8 +4194,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>376</v>
       </c>
@@ -4074,10 +4206,10 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4124,8 +4256,11 @@
       <c r="S44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>377</v>
       </c>
@@ -4133,10 +4268,10 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4183,8 +4318,11 @@
       <c r="S45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>1901</v>
       </c>
@@ -4192,10 +4330,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -4242,8 +4380,11 @@
       <c r="S46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>755</v>
       </c>
@@ -4251,10 +4392,10 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4301,8 +4442,11 @@
       <c r="S47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>1681</v>
       </c>
@@ -4310,10 +4454,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4360,8 +4504,11 @@
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>147</v>
       </c>
@@ -4369,10 +4516,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4419,8 +4566,11 @@
       <c r="S49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>654</v>
       </c>
@@ -4428,10 +4578,10 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4478,8 +4628,11 @@
       <c r="S50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>756</v>
       </c>
@@ -4487,10 +4640,10 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4537,8 +4690,11 @@
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>757</v>
       </c>
@@ -4546,10 +4702,10 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4596,8 +4752,11 @@
       <c r="S52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>758</v>
       </c>
@@ -4605,10 +4764,10 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4655,8 +4814,11 @@
       <c r="S53">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>501</v>
       </c>
@@ -4664,10 +4826,10 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4714,8 +4876,11 @@
       <c r="S54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>1876</v>
       </c>
@@ -4723,10 +4888,10 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4773,8 +4938,11 @@
       <c r="S55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>213</v>
       </c>
@@ -4782,10 +4950,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4832,8 +5000,11 @@
       <c r="S56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>899</v>
       </c>
@@ -4841,10 +5012,10 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4891,8 +5062,11 @@
       <c r="S57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>312</v>
       </c>
@@ -4900,10 +5074,10 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4950,8 +5124,11 @@
       <c r="S58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>313</v>
       </c>
@@ -4959,10 +5136,10 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5009,8 +5186,11 @@
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>214</v>
       </c>
@@ -5018,10 +5198,10 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5068,8 +5248,11 @@
       <c r="S60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>502</v>
       </c>
@@ -5077,10 +5260,10 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5127,8 +5310,11 @@
       <c r="S61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>383</v>
       </c>
@@ -5136,10 +5322,10 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5186,8 +5372,11 @@
       <c r="S62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>109</v>
       </c>
@@ -5195,10 +5384,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5245,8 +5434,11 @@
       <c r="S63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>1706</v>
       </c>
@@ -5254,10 +5446,10 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5304,8 +5496,11 @@
       <c r="S64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>1684</v>
       </c>
@@ -5313,10 +5508,10 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5363,8 +5558,11 @@
       <c r="S65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>216</v>
       </c>
@@ -5372,10 +5570,10 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5422,8 +5620,11 @@
       <c r="S66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>148</v>
       </c>
@@ -5431,10 +5632,10 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5481,8 +5682,11 @@
       <c r="S67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>1891</v>
       </c>
@@ -5490,10 +5694,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5540,8 +5744,11 @@
       <c r="S68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>310</v>
       </c>
@@ -5549,10 +5756,10 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5599,8 +5806,11 @@
       <c r="S69">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>1940</v>
       </c>
@@ -5608,10 +5818,10 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5658,8 +5868,11 @@
       <c r="S70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>736</v>
       </c>
@@ -5667,10 +5880,10 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5717,8 +5930,11 @@
       <c r="S71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>1690</v>
       </c>
@@ -5726,10 +5942,10 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5776,8 +5992,11 @@
       <c r="S72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>503</v>
       </c>
@@ -5785,10 +6004,10 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5835,8 +6054,11 @@
       <c r="S73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -5844,10 +6066,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5894,8 +6116,11 @@
       <c r="S74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>400</v>
       </c>
@@ -5903,10 +6128,10 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5953,8 +6178,11 @@
       <c r="S75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>762</v>
       </c>
@@ -5962,10 +6190,10 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6012,8 +6240,11 @@
       <c r="S76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>150</v>
       </c>
@@ -6021,10 +6252,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6071,8 +6302,11 @@
       <c r="S77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>384</v>
       </c>
@@ -6080,10 +6314,10 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6130,8 +6364,11 @@
       <c r="S78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>1774</v>
       </c>
@@ -6139,10 +6376,10 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6189,8 +6426,11 @@
       <c r="S79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>221</v>
       </c>
@@ -6198,10 +6438,10 @@
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6248,8 +6488,11 @@
       <c r="S80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>222</v>
       </c>
@@ -6257,10 +6500,10 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6307,8 +6550,11 @@
       <c r="S81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>766</v>
       </c>
@@ -6316,10 +6562,10 @@
         <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6366,8 +6612,11 @@
       <c r="S82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>505</v>
       </c>
@@ -6375,10 +6624,10 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6425,8 +6674,11 @@
       <c r="S83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>498</v>
       </c>
@@ -6434,10 +6686,10 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6484,8 +6736,11 @@
       <c r="S84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>1719</v>
       </c>
@@ -6493,10 +6748,10 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6543,8 +6798,11 @@
       <c r="S85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>303</v>
       </c>
@@ -6552,10 +6810,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6602,8 +6860,11 @@
       <c r="S86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>225</v>
       </c>
@@ -6611,10 +6872,10 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6661,8 +6922,11 @@
       <c r="S87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>226</v>
       </c>
@@ -6670,10 +6934,10 @@
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6720,8 +6984,11 @@
       <c r="S88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>1711</v>
       </c>
@@ -6729,10 +6996,10 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6779,8 +7046,11 @@
       <c r="S89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>385</v>
       </c>
@@ -6788,10 +7058,10 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6838,8 +7108,11 @@
       <c r="S90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>228</v>
       </c>
@@ -6847,10 +7120,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6897,8 +7170,11 @@
       <c r="S91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>317</v>
       </c>
@@ -6906,10 +7182,10 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6956,8 +7232,11 @@
       <c r="S92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>770</v>
       </c>
@@ -6965,10 +7244,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7015,8 +7294,11 @@
       <c r="S93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>1903</v>
       </c>
@@ -7024,10 +7306,10 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7074,8 +7356,11 @@
       <c r="S94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>772</v>
       </c>
@@ -7083,10 +7368,10 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7133,8 +7418,11 @@
       <c r="S95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>230</v>
       </c>
@@ -7142,10 +7430,10 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7192,8 +7480,11 @@
       <c r="S96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>114</v>
       </c>
@@ -7201,10 +7492,10 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7251,8 +7542,11 @@
       <c r="S97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>388</v>
       </c>
@@ -7260,10 +7554,10 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7310,8 +7604,11 @@
       <c r="S98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>153</v>
       </c>
@@ -7319,10 +7616,10 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7369,8 +7666,11 @@
       <c r="S99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>232</v>
       </c>
@@ -7378,10 +7678,10 @@
         <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7428,8 +7728,11 @@
       <c r="S100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>233</v>
       </c>
@@ -7437,10 +7740,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7487,8 +7790,11 @@
       <c r="S101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>777</v>
       </c>
@@ -7496,10 +7802,10 @@
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7546,8 +7852,11 @@
       <c r="S102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>779</v>
       </c>
@@ -7555,10 +7864,10 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7605,8 +7914,11 @@
       <c r="S103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>1771</v>
       </c>
@@ -7614,10 +7926,10 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -7664,8 +7976,11 @@
       <c r="S104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>1652</v>
       </c>
@@ -7673,10 +7988,10 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -7723,8 +8038,11 @@
       <c r="S105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>907</v>
       </c>
@@ -7732,10 +8050,10 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -7782,8 +8100,11 @@
       <c r="S106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>784</v>
       </c>
@@ -7791,10 +8112,10 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -7841,8 +8162,11 @@
       <c r="S107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>1924</v>
       </c>
@@ -7850,10 +8174,10 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -7900,8 +8224,11 @@
       <c r="S108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>664</v>
       </c>
@@ -7909,10 +8236,10 @@
         <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7959,8 +8286,11 @@
       <c r="S109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>785</v>
       </c>
@@ -7968,10 +8298,10 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8018,8 +8348,11 @@
       <c r="S110">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>1942</v>
       </c>
@@ -8027,10 +8360,10 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8077,8 +8410,11 @@
       <c r="S111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>512</v>
       </c>
@@ -8086,10 +8422,10 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8136,8 +8472,11 @@
       <c r="S112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="1">
         <v>513</v>
       </c>
@@ -8145,10 +8484,10 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8195,8 +8534,11 @@
       <c r="S113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="1">
         <v>786</v>
       </c>
@@ -8204,10 +8546,10 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -8254,8 +8596,11 @@
       <c r="S114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="1">
         <v>14</v>
       </c>
@@ -8263,10 +8608,10 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -8313,8 +8658,11 @@
       <c r="S115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="1">
         <v>1729</v>
       </c>
@@ -8322,10 +8670,10 @@
         <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8372,8 +8720,11 @@
       <c r="S116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="1">
         <v>158</v>
       </c>
@@ -8381,10 +8732,10 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -8431,8 +8782,11 @@
       <c r="S117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="1">
         <v>788</v>
       </c>
@@ -8440,10 +8794,10 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -8490,8 +8844,11 @@
       <c r="S118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="1">
         <v>392</v>
       </c>
@@ -8499,10 +8856,10 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -8549,8 +8906,11 @@
       <c r="S119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="1">
         <v>394</v>
       </c>
@@ -8558,10 +8918,10 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -8608,8 +8968,11 @@
       <c r="S120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="1">
         <v>1655</v>
       </c>
@@ -8617,10 +8980,10 @@
         <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -8667,8 +9030,11 @@
       <c r="S121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="1">
         <v>160</v>
       </c>
@@ -8676,10 +9042,10 @@
         <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -8726,8 +9092,11 @@
       <c r="S122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="1">
         <v>243</v>
       </c>
@@ -8735,10 +9104,10 @@
         <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -8785,8 +9154,11 @@
       <c r="S123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="1">
         <v>523</v>
       </c>
@@ -8794,10 +9166,10 @@
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -8844,8 +9216,11 @@
       <c r="S124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="1">
         <v>72</v>
       </c>
@@ -8853,10 +9228,10 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -8903,8 +9278,11 @@
       <c r="S125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="1">
         <v>244</v>
       </c>
@@ -8912,10 +9290,10 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -8962,8 +9340,11 @@
       <c r="S126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="1">
         <v>396</v>
       </c>
@@ -8971,10 +9352,10 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9021,8 +9402,11 @@
       <c r="S127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="1">
         <v>397</v>
       </c>
@@ -9030,10 +9414,10 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9080,8 +9464,11 @@
       <c r="S128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="1">
         <v>246</v>
       </c>
@@ -9089,10 +9476,10 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -9139,8 +9526,11 @@
       <c r="S129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="1">
         <v>74</v>
       </c>
@@ -9148,10 +9538,10 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9198,8 +9588,11 @@
       <c r="S130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="1">
         <v>398</v>
       </c>
@@ -9207,10 +9600,10 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9257,8 +9650,11 @@
       <c r="S131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="1">
         <v>917</v>
       </c>
@@ -9266,10 +9662,10 @@
         <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9316,8 +9712,11 @@
       <c r="S132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="1">
         <v>1658</v>
       </c>
@@ -9325,10 +9724,10 @@
         <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9375,8 +9774,11 @@
       <c r="S133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="1">
         <v>399</v>
       </c>
@@ -9384,10 +9786,10 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -9434,8 +9836,11 @@
       <c r="S134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="1">
         <v>163</v>
       </c>
@@ -9443,10 +9848,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9493,8 +9898,11 @@
       <c r="S135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="1">
         <v>530</v>
       </c>
@@ -9502,10 +9910,10 @@
         <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -9552,8 +9960,11 @@
       <c r="S136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="1">
         <v>794</v>
       </c>
@@ -9561,10 +9972,10 @@
         <v>30</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9611,8 +10022,11 @@
       <c r="S137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="1">
         <v>531</v>
       </c>
@@ -9620,10 +10034,10 @@
         <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9670,8 +10084,11 @@
       <c r="S138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="1">
         <v>164</v>
       </c>
@@ -9679,10 +10096,10 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9729,8 +10146,11 @@
       <c r="S139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="1">
         <v>1966</v>
       </c>
@@ -9738,10 +10158,10 @@
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -9788,8 +10208,11 @@
       <c r="S140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="1">
         <v>252</v>
       </c>
@@ -9797,10 +10220,10 @@
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -9847,8 +10270,11 @@
       <c r="S141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="1">
         <v>797</v>
       </c>
@@ -9856,10 +10282,10 @@
         <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -9906,8 +10332,11 @@
       <c r="S142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="1">
         <v>534</v>
       </c>
@@ -9915,10 +10344,10 @@
         <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -9965,8 +10394,11 @@
       <c r="S143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="1">
         <v>798</v>
       </c>
@@ -9974,10 +10406,10 @@
         <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -10024,8 +10456,11 @@
       <c r="S144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="1">
         <v>402</v>
       </c>
@@ -10033,10 +10468,10 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -10083,8 +10518,11 @@
       <c r="S145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="1">
         <v>1963</v>
       </c>
@@ -10092,10 +10530,10 @@
         <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10142,8 +10580,11 @@
       <c r="S146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="1">
         <v>1735</v>
       </c>
@@ -10151,10 +10592,10 @@
         <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -10201,8 +10642,11 @@
       <c r="S147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="1">
         <v>1911</v>
       </c>
@@ -10210,10 +10654,10 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10260,8 +10704,11 @@
       <c r="S148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="1">
         <v>118</v>
       </c>
@@ -10269,10 +10716,10 @@
         <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -10319,8 +10766,11 @@
       <c r="S149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="1">
         <v>405</v>
       </c>
@@ -10328,10 +10778,10 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -10378,8 +10828,11 @@
       <c r="S150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="1">
         <v>1507</v>
       </c>
@@ -10387,10 +10840,10 @@
         <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -10437,8 +10890,11 @@
       <c r="S151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="1">
         <v>321</v>
       </c>
@@ -10446,10 +10902,10 @@
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -10496,8 +10952,11 @@
       <c r="S152">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="1">
         <v>406</v>
       </c>
@@ -10505,10 +10964,10 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -10555,8 +11014,11 @@
       <c r="S153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="1">
         <v>677</v>
       </c>
@@ -10564,10 +11026,10 @@
         <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -10614,8 +11076,11 @@
       <c r="S154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="1">
         <v>353</v>
       </c>
@@ -10623,10 +11088,10 @@
         <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -10673,8 +11138,11 @@
       <c r="S155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="1">
         <v>1884</v>
       </c>
@@ -10682,10 +11150,10 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -10732,8 +11200,11 @@
       <c r="S156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="1">
         <v>166</v>
       </c>
@@ -10741,10 +11212,10 @@
         <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -10791,8 +11262,11 @@
       <c r="S157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="1">
         <v>678</v>
       </c>
@@ -10800,10 +11274,10 @@
         <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D158" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -10850,8 +11324,11 @@
       <c r="S158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="1">
         <v>537</v>
       </c>
@@ -10859,10 +11336,10 @@
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -10909,8 +11386,11 @@
       <c r="S159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="1">
         <v>928</v>
       </c>
@@ -10918,10 +11398,10 @@
         <v>31</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -10968,8 +11448,11 @@
       <c r="S160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="1">
         <v>1598</v>
       </c>
@@ -10977,10 +11460,10 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -11027,8 +11510,11 @@
       <c r="S161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="1">
         <v>542</v>
       </c>
@@ -11036,10 +11522,10 @@
         <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -11086,8 +11572,11 @@
       <c r="S162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="1">
         <v>1931</v>
       </c>
@@ -11095,10 +11584,10 @@
         <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -11145,8 +11634,11 @@
       <c r="S163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="1">
         <v>1659</v>
       </c>
@@ -11154,10 +11646,10 @@
         <v>30</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -11204,8 +11696,11 @@
       <c r="S164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="1">
         <v>1685</v>
       </c>
@@ -11213,10 +11708,10 @@
         <v>30</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -11263,8 +11758,11 @@
       <c r="S165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="1">
         <v>882</v>
       </c>
@@ -11272,10 +11770,10 @@
         <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D166" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -11322,8 +11820,11 @@
       <c r="S166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="1">
         <v>415</v>
       </c>
@@ -11331,10 +11832,10 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -11381,8 +11882,11 @@
       <c r="S167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="1">
         <v>416</v>
       </c>
@@ -11390,10 +11894,10 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -11440,8 +11944,11 @@
       <c r="S168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="1">
         <v>1621</v>
       </c>
@@ -11449,10 +11956,10 @@
         <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -11499,8 +12006,11 @@
       <c r="S169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="1">
         <v>417</v>
       </c>
@@ -11508,10 +12018,10 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -11558,8 +12068,11 @@
       <c r="S170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="1">
         <v>80</v>
       </c>
@@ -11567,10 +12080,10 @@
         <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -11617,8 +12130,11 @@
       <c r="S171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="1">
         <v>546</v>
       </c>
@@ -11626,10 +12142,10 @@
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -11676,8 +12192,11 @@
       <c r="S172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="1">
         <v>547</v>
       </c>
@@ -11685,10 +12204,10 @@
         <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -11735,8 +12254,11 @@
       <c r="S173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="1">
         <v>1916</v>
       </c>
@@ -11744,10 +12266,10 @@
         <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -11794,8 +12316,11 @@
       <c r="S174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="1">
         <v>995</v>
       </c>
@@ -11803,10 +12328,10 @@
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -11853,8 +12378,11 @@
       <c r="S175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="1">
         <v>1640</v>
       </c>
@@ -11862,10 +12390,10 @@
         <v>31</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D176" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -11912,8 +12440,11 @@
       <c r="S176">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="1">
         <v>327</v>
       </c>
@@ -11921,10 +12452,10 @@
         <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -11971,8 +12502,11 @@
       <c r="S177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="1">
         <v>1705</v>
       </c>
@@ -11980,10 +12514,10 @@
         <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -12030,8 +12564,11 @@
       <c r="S178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="1">
         <v>553</v>
       </c>
@@ -12039,10 +12576,10 @@
         <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -12089,8 +12626,11 @@
       <c r="S179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="1">
         <v>262</v>
       </c>
@@ -12098,10 +12638,10 @@
         <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -12148,8 +12688,11 @@
       <c r="S180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="1">
         <v>809</v>
       </c>
@@ -12157,10 +12700,10 @@
         <v>30</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -12207,8 +12750,11 @@
       <c r="S181">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="1">
         <v>331</v>
       </c>
@@ -12216,10 +12762,10 @@
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -12266,8 +12812,11 @@
       <c r="S182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="1">
         <v>24</v>
       </c>
@@ -12275,10 +12824,10 @@
         <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -12325,8 +12874,11 @@
       <c r="S183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="1">
         <v>168</v>
       </c>
@@ -12334,10 +12886,10 @@
         <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -12384,8 +12936,11 @@
       <c r="S184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -12393,10 +12948,10 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -12443,8 +12998,11 @@
       <c r="S185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="1">
         <v>1641</v>
       </c>
@@ -12452,10 +13010,10 @@
         <v>31</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D186" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -12502,8 +13060,11 @@
       <c r="S186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="1">
         <v>556</v>
       </c>
@@ -12511,10 +13072,10 @@
         <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -12561,8 +13122,11 @@
       <c r="S187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="1">
         <v>935</v>
       </c>
@@ -12570,10 +13134,10 @@
         <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -12620,8 +13184,11 @@
       <c r="S188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="1">
         <v>420</v>
       </c>
@@ -12629,10 +13196,10 @@
         <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -12679,8 +13246,11 @@
       <c r="S189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="1">
         <v>938</v>
       </c>
@@ -12688,10 +13258,10 @@
         <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -12738,8 +13308,11 @@
       <c r="S190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="1">
         <v>1948</v>
       </c>
@@ -12747,10 +13320,10 @@
         <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -12797,8 +13370,11 @@
       <c r="S191">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="1">
         <v>119</v>
       </c>
@@ -12806,10 +13382,10 @@
         <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -12856,8 +13432,11 @@
       <c r="S192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="1">
         <v>687</v>
       </c>
@@ -12865,10 +13444,10 @@
         <v>29</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -12915,8 +13494,11 @@
       <c r="S193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="1">
         <v>1842</v>
       </c>
@@ -12924,10 +13506,10 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -12974,8 +13556,11 @@
       <c r="S194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="1">
         <v>1731</v>
       </c>
@@ -12983,10 +13568,10 @@
         <v>22</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -13033,8 +13618,11 @@
       <c r="S195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="1">
         <v>1952</v>
       </c>
@@ -13042,10 +13630,10 @@
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D196" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -13092,8 +13680,11 @@
       <c r="S196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="1">
         <v>815</v>
       </c>
@@ -13101,10 +13692,10 @@
         <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -13151,8 +13742,11 @@
       <c r="S197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="1">
         <v>1709</v>
       </c>
@@ -13160,10 +13754,10 @@
         <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -13210,8 +13804,11 @@
       <c r="S198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="1">
         <v>1978</v>
       </c>
@@ -13219,10 +13816,10 @@
         <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -13269,8 +13866,11 @@
       <c r="S199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="1">
         <v>1955</v>
       </c>
@@ -13278,10 +13878,10 @@
         <v>25</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -13328,8 +13928,11 @@
       <c r="S200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" s="1">
         <v>335</v>
       </c>
@@ -13337,10 +13940,10 @@
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -13387,8 +13990,11 @@
       <c r="S201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" s="1">
         <v>944</v>
       </c>
@@ -13396,10 +14002,10 @@
         <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D202" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -13446,8 +14052,11 @@
       <c r="S202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" s="1">
         <v>1740</v>
       </c>
@@ -13455,10 +14064,10 @@
         <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -13505,8 +14114,11 @@
       <c r="S203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="1">
         <v>946</v>
       </c>
@@ -13514,10 +14126,10 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -13564,8 +14176,11 @@
       <c r="S204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" s="1">
         <v>356</v>
       </c>
@@ -13573,10 +14188,10 @@
         <v>26</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -13623,8 +14238,11 @@
       <c r="S205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" s="1">
         <v>569</v>
       </c>
@@ -13632,10 +14250,10 @@
         <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -13682,8 +14300,11 @@
       <c r="S206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" s="1">
         <v>267</v>
       </c>
@@ -13691,10 +14312,10 @@
         <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -13741,8 +14362,11 @@
       <c r="S207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" s="1">
         <v>268</v>
       </c>
@@ -13750,10 +14374,10 @@
         <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -13800,8 +14424,11 @@
       <c r="S208">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:19">
+      <c r="T208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" s="1">
         <v>1930</v>
       </c>
@@ -13809,10 +14436,10 @@
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -13859,8 +14486,11 @@
       <c r="S209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:19">
+      <c r="T209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" s="1">
         <v>1970</v>
       </c>
@@ -13868,10 +14498,10 @@
         <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -13918,8 +14548,11 @@
       <c r="S210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" s="1">
         <v>1695</v>
       </c>
@@ -13927,10 +14560,10 @@
         <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -13977,8 +14610,11 @@
       <c r="S211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="1">
         <v>1699</v>
       </c>
@@ -13986,10 +14622,10 @@
         <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -14036,8 +14672,11 @@
       <c r="S212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="1">
         <v>171</v>
       </c>
@@ -14045,10 +14684,10 @@
         <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D213" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -14095,8 +14734,11 @@
       <c r="S213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="1">
         <v>575</v>
       </c>
@@ -14104,10 +14746,10 @@
         <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -14154,8 +14796,11 @@
       <c r="S214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="1">
         <v>820</v>
       </c>
@@ -14163,10 +14808,10 @@
         <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -14213,8 +14858,11 @@
       <c r="S215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="1">
         <v>302</v>
       </c>
@@ -14222,10 +14870,10 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -14272,8 +14920,11 @@
       <c r="S216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="T216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" s="1">
         <v>579</v>
       </c>
@@ -14281,10 +14932,10 @@
         <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -14331,8 +14982,11 @@
       <c r="S217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:19">
+      <c r="T217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" s="1">
         <v>823</v>
       </c>
@@ -14340,10 +14994,10 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -14390,8 +15044,11 @@
       <c r="S218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:19">
+      <c r="T218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" s="1">
         <v>824</v>
       </c>
@@ -14399,10 +15056,10 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -14449,8 +15106,11 @@
       <c r="S219">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:19">
+      <c r="T219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" s="1">
         <v>1895</v>
       </c>
@@ -14458,10 +15118,10 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -14508,8 +15168,11 @@
       <c r="S220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:19">
+      <c r="T220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" s="1">
         <v>269</v>
       </c>
@@ -14517,10 +15180,10 @@
         <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -14567,8 +15230,11 @@
       <c r="S221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:19">
+      <c r="T221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" s="1">
         <v>173</v>
       </c>
@@ -14576,10 +15242,10 @@
         <v>23</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -14626,8 +15292,11 @@
       <c r="S222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:19">
+      <c r="T222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" s="1">
         <v>1773</v>
       </c>
@@ -14635,10 +15304,10 @@
         <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -14685,8 +15354,11 @@
       <c r="S223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:19">
+      <c r="T223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" s="1">
         <v>175</v>
       </c>
@@ -14694,10 +15366,10 @@
         <v>23</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D224" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -14744,8 +15416,11 @@
       <c r="S224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:19">
+      <c r="T224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" s="1">
         <v>1586</v>
       </c>
@@ -14753,10 +15428,10 @@
         <v>25</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -14803,8 +15478,11 @@
       <c r="S225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:19">
+      <c r="T225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" s="1">
         <v>826</v>
       </c>
@@ -14812,10 +15490,10 @@
         <v>30</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -14862,8 +15540,11 @@
       <c r="S226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:19">
+      <c r="T226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" s="1">
         <v>85</v>
       </c>
@@ -14871,10 +15552,10 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -14921,8 +15602,11 @@
       <c r="S227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:19">
+      <c r="T227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" s="1">
         <v>431</v>
       </c>
@@ -14930,10 +15614,10 @@
         <v>27</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -14980,8 +15664,11 @@
       <c r="S228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:19">
+      <c r="T228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" s="1">
         <v>432</v>
       </c>
@@ -14989,10 +15676,10 @@
         <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D229" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -15039,8 +15726,11 @@
       <c r="S229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:19">
+      <c r="T229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" s="1">
         <v>86</v>
       </c>
@@ -15048,10 +15738,10 @@
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -15098,8 +15788,11 @@
       <c r="S230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:19">
+      <c r="T230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" s="1">
         <v>828</v>
       </c>
@@ -15107,10 +15800,10 @@
         <v>30</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -15157,8 +15850,11 @@
       <c r="S231">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:19">
+      <c r="T231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" s="1">
         <v>1509</v>
       </c>
@@ -15166,10 +15862,10 @@
         <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -15216,8 +15912,11 @@
       <c r="S232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:19">
+      <c r="T232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" s="1">
         <v>437</v>
       </c>
@@ -15225,10 +15924,10 @@
         <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -15275,8 +15974,11 @@
       <c r="S233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:19">
+      <c r="T233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20">
       <c r="A234" s="1">
         <v>589</v>
       </c>
@@ -15284,10 +15986,10 @@
         <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -15334,8 +16036,11 @@
       <c r="S234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:19">
+      <c r="T234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" s="1">
         <v>1734</v>
       </c>
@@ -15343,10 +16048,10 @@
         <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -15393,8 +16098,11 @@
       <c r="S235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:19">
+      <c r="T235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20">
       <c r="A236" s="1">
         <v>590</v>
       </c>
@@ -15402,10 +16110,10 @@
         <v>28</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -15452,8 +16160,11 @@
       <c r="S236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:19">
+      <c r="T236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" s="1">
         <v>1894</v>
       </c>
@@ -15461,10 +16172,10 @@
         <v>31</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D237" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -15511,8 +16222,11 @@
       <c r="S237">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:19">
+      <c r="T237">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" s="1">
         <v>765</v>
       </c>
@@ -15520,10 +16234,10 @@
         <v>20</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D238" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -15570,8 +16284,11 @@
       <c r="S238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:19">
+      <c r="T238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" s="1">
         <v>1926</v>
       </c>
@@ -15579,10 +16296,10 @@
         <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -15629,8 +16346,11 @@
       <c r="S239">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:19">
+      <c r="T239">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20">
       <c r="A240" s="1">
         <v>439</v>
       </c>
@@ -15638,10 +16358,10 @@
         <v>27</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -15688,8 +16408,11 @@
       <c r="S240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:19">
+      <c r="T240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" s="1">
         <v>273</v>
       </c>
@@ -15697,10 +16420,10 @@
         <v>25</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -15747,8 +16470,11 @@
       <c r="S241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:19">
+      <c r="T241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="1">
         <v>177</v>
       </c>
@@ -15756,10 +16482,10 @@
         <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -15806,8 +16532,11 @@
       <c r="S242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:19">
+      <c r="T242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" s="1">
         <v>703</v>
       </c>
@@ -15815,10 +16544,10 @@
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -15865,8 +16594,11 @@
       <c r="S243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:19">
+      <c r="T243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" s="1">
         <v>274</v>
       </c>
@@ -15874,10 +16606,10 @@
         <v>25</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -15924,8 +16656,11 @@
       <c r="S244">
         <v>7</v>
       </c>
-    </row>
-    <row r="245" spans="1:19">
+      <c r="T244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" s="1">
         <v>339</v>
       </c>
@@ -15933,10 +16668,10 @@
         <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D245" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -15983,8 +16718,11 @@
       <c r="S245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:19">
+      <c r="T245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" s="1">
         <v>1667</v>
       </c>
@@ -15992,10 +16730,10 @@
         <v>30</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -16042,8 +16780,11 @@
       <c r="S246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:19">
+      <c r="T246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" s="1">
         <v>275</v>
       </c>
@@ -16051,10 +16792,10 @@
         <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -16101,8 +16842,11 @@
       <c r="S247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:19">
+      <c r="T247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" s="1">
         <v>340</v>
       </c>
@@ -16110,10 +16854,10 @@
         <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D248" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -16160,8 +16904,11 @@
       <c r="S248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:19">
+      <c r="T248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" s="1">
         <v>597</v>
       </c>
@@ -16169,10 +16916,10 @@
         <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -16219,8 +16966,11 @@
       <c r="S249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:19">
+      <c r="T249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" s="1">
         <v>1742</v>
       </c>
@@ -16228,10 +16978,10 @@
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D250" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -16278,8 +17028,11 @@
       <c r="S250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:19">
+      <c r="T250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="1">
         <v>603</v>
       </c>
@@ -16287,10 +17040,10 @@
         <v>28</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D251" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -16337,8 +17090,11 @@
       <c r="S251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:19">
+      <c r="T251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" s="1">
         <v>1669</v>
       </c>
@@ -16346,10 +17102,10 @@
         <v>31</v>
       </c>
       <c r="C252" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D252" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -16396,8 +17152,11 @@
       <c r="S252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:19">
+      <c r="T252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" s="1">
         <v>957</v>
       </c>
@@ -16405,10 +17164,10 @@
         <v>31</v>
       </c>
       <c r="C253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D253" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -16455,8 +17214,11 @@
       <c r="S253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:19">
+      <c r="T253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" s="1">
         <v>1674</v>
       </c>
@@ -16464,10 +17226,10 @@
         <v>30</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D254" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -16514,8 +17276,11 @@
       <c r="S254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:19">
+      <c r="T254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" s="1">
         <v>599</v>
       </c>
@@ -16523,10 +17288,10 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -16573,8 +17338,11 @@
       <c r="S255">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:19">
+      <c r="T255">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" s="1">
         <v>277</v>
       </c>
@@ -16582,10 +17350,10 @@
         <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -16632,8 +17400,11 @@
       <c r="S256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:19">
+      <c r="T256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" s="1">
         <v>840</v>
       </c>
@@ -16641,10 +17412,10 @@
         <v>30</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D257" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -16691,8 +17462,11 @@
       <c r="S257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:19">
+      <c r="T257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" s="1">
         <v>441</v>
       </c>
@@ -16700,10 +17474,10 @@
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D258" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -16750,8 +17524,11 @@
       <c r="S258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:19">
+      <c r="T258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" s="1">
         <v>279</v>
       </c>
@@ -16759,10 +17536,10 @@
         <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -16809,8 +17586,11 @@
       <c r="S259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:19">
+      <c r="T259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" s="1">
         <v>606</v>
       </c>
@@ -16818,10 +17598,10 @@
         <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -16868,8 +17648,11 @@
       <c r="S260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:19">
+      <c r="T260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" s="1">
         <v>88</v>
       </c>
@@ -16877,10 +17660,10 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D261" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -16927,8 +17710,11 @@
       <c r="S261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:19">
+      <c r="T261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" s="1">
         <v>1676</v>
       </c>
@@ -16936,10 +17722,10 @@
         <v>29</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D262" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -16986,8 +17772,11 @@
       <c r="S262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:19">
+      <c r="T262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" s="1">
         <v>965</v>
       </c>
@@ -16995,10 +17784,10 @@
         <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D263" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -17045,8 +17834,11 @@
       <c r="S263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:19">
+      <c r="T263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" s="1">
         <v>1702</v>
       </c>
@@ -17054,10 +17846,10 @@
         <v>30</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -17104,8 +17896,11 @@
       <c r="S264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:19">
+      <c r="T264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" s="1">
         <v>845</v>
       </c>
@@ -17113,10 +17908,10 @@
         <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D265" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -17163,8 +17958,11 @@
       <c r="S265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:19">
+      <c r="T265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" s="1">
         <v>1883</v>
       </c>
@@ -17172,10 +17970,10 @@
         <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D266" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -17222,8 +18020,11 @@
       <c r="S266">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:19">
+      <c r="T266">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" s="1">
         <v>610</v>
       </c>
@@ -17231,10 +18032,10 @@
         <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -17281,8 +18082,11 @@
       <c r="S267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:19">
+      <c r="T267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" s="1">
         <v>1714</v>
       </c>
@@ -17290,10 +18094,10 @@
         <v>29</v>
       </c>
       <c r="C268" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D268" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -17340,8 +18144,11 @@
       <c r="S268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:19">
+      <c r="T268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" s="1">
         <v>90</v>
       </c>
@@ -17349,10 +18156,10 @@
         <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D269" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -17399,8 +18206,11 @@
       <c r="S269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:19">
+      <c r="T269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" s="1">
         <v>342</v>
       </c>
@@ -17408,10 +18218,10 @@
         <v>26</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -17458,8 +18268,11 @@
       <c r="S270">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:19">
+      <c r="T270">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" s="1">
         <v>847</v>
       </c>
@@ -17467,10 +18280,10 @@
         <v>30</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -17517,8 +18330,11 @@
       <c r="S271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:19">
+      <c r="T271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" s="1">
         <v>848</v>
       </c>
@@ -17526,10 +18342,10 @@
         <v>30</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -17576,8 +18392,11 @@
       <c r="S272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:19">
+      <c r="T272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" s="1">
         <v>37</v>
       </c>
@@ -17585,10 +18404,10 @@
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -17635,8 +18454,11 @@
       <c r="S273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:19">
+      <c r="T273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" s="1">
         <v>180</v>
       </c>
@@ -17644,10 +18466,10 @@
         <v>23</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D274" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -17694,8 +18516,11 @@
       <c r="S274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:19">
+      <c r="T274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" s="1">
         <v>532</v>
       </c>
@@ -17703,10 +18528,10 @@
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -17753,8 +18578,11 @@
       <c r="S275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:19">
+      <c r="T275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" s="1">
         <v>851</v>
       </c>
@@ -17762,10 +18590,10 @@
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -17812,8 +18640,11 @@
       <c r="S276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:19">
+      <c r="T276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" s="1">
         <v>1708</v>
       </c>
@@ -17821,10 +18652,10 @@
         <v>23</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D277" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -17871,8 +18702,11 @@
       <c r="S277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:19">
+      <c r="T277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" s="1">
         <v>971</v>
       </c>
@@ -17880,10 +18714,10 @@
         <v>31</v>
       </c>
       <c r="C278" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D278" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -17930,8 +18764,11 @@
       <c r="S278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:19">
+      <c r="T278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" s="1">
         <v>1904</v>
       </c>
@@ -17939,10 +18776,10 @@
         <v>26</v>
       </c>
       <c r="C279" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D279" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -17989,8 +18826,11 @@
       <c r="S279">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:19">
+      <c r="T279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" s="1">
         <v>1900</v>
       </c>
@@ -17998,10 +18838,10 @@
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D280" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -18048,8 +18888,11 @@
       <c r="S280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:19">
+      <c r="T280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" s="1">
         <v>715</v>
       </c>
@@ -18057,10 +18900,10 @@
         <v>29</v>
       </c>
       <c r="C281" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D281" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -18107,8 +18950,11 @@
       <c r="S281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:19">
+      <c r="T281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" s="1">
         <v>93</v>
       </c>
@@ -18116,10 +18962,10 @@
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D282" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -18166,8 +19012,11 @@
       <c r="S282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:19">
+      <c r="T282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" s="1">
         <v>448</v>
       </c>
@@ -18175,10 +19024,10 @@
         <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D283" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -18225,8 +19074,11 @@
       <c r="S283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:19">
+      <c r="T283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" s="1">
         <v>1525</v>
       </c>
@@ -18234,10 +19086,10 @@
         <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D284" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -18284,8 +19136,11 @@
       <c r="S284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:19">
+      <c r="T284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" s="1">
         <v>716</v>
       </c>
@@ -18293,10 +19148,10 @@
         <v>29</v>
       </c>
       <c r="C285" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D285" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -18343,8 +19198,11 @@
       <c r="S285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:19">
+      <c r="T285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" s="1">
         <v>281</v>
       </c>
@@ -18352,10 +19210,10 @@
         <v>25</v>
       </c>
       <c r="C286" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D286" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -18402,8 +19260,11 @@
       <c r="S286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:19">
+      <c r="T286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" s="1">
         <v>855</v>
       </c>
@@ -18411,10 +19272,10 @@
         <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -18461,8 +19322,11 @@
       <c r="S287">
         <v>50</v>
       </c>
-    </row>
-    <row r="288" spans="1:19">
+      <c r="T287">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="1">
         <v>183</v>
       </c>
@@ -18470,10 +19334,10 @@
         <v>23</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -18520,8 +19384,11 @@
       <c r="S288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:19">
+      <c r="T288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
       <c r="A289" s="1">
         <v>1700</v>
       </c>
@@ -18529,10 +19396,10 @@
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D289" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -18579,8 +19446,11 @@
       <c r="S289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:19">
+      <c r="T289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" s="1">
         <v>1730</v>
       </c>
@@ -18588,10 +19458,10 @@
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -18638,8 +19508,11 @@
       <c r="S290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:19">
+      <c r="T290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" s="1">
         <v>737</v>
       </c>
@@ -18647,10 +19520,10 @@
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D291" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -18697,8 +19570,11 @@
       <c r="S291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:19">
+      <c r="T291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
       <c r="A292" s="1">
         <v>856</v>
       </c>
@@ -18706,10 +19582,10 @@
         <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -18756,8 +19632,11 @@
       <c r="S292">
         <v>21</v>
       </c>
-    </row>
-    <row r="293" spans="1:19">
+      <c r="T292">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" s="1">
         <v>450</v>
       </c>
@@ -18765,10 +19644,10 @@
         <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -18815,8 +19694,11 @@
       <c r="S293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:19">
+      <c r="T293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" s="1">
         <v>451</v>
       </c>
@@ -18824,10 +19706,10 @@
         <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D294" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -18874,8 +19756,11 @@
       <c r="S294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:19">
+      <c r="T294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" s="1">
         <v>184</v>
       </c>
@@ -18883,10 +19768,10 @@
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D295" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -18933,8 +19818,11 @@
       <c r="S295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:19">
+      <c r="T295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" s="1">
         <v>344</v>
       </c>
@@ -18942,10 +19830,10 @@
         <v>26</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -18992,8 +19880,11 @@
       <c r="S296">
         <v>25</v>
       </c>
-    </row>
-    <row r="297" spans="1:19">
+      <c r="T296">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" s="1">
         <v>1581</v>
       </c>
@@ -19001,10 +19892,10 @@
         <v>26</v>
       </c>
       <c r="C297" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D297" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -19051,8 +19942,11 @@
       <c r="S297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:19">
+      <c r="T297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
       <c r="A298" s="1">
         <v>981</v>
       </c>
@@ -19060,10 +19954,10 @@
         <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D298" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -19110,8 +20004,11 @@
       <c r="S298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:19">
+      <c r="T298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" s="1">
         <v>994</v>
       </c>
@@ -19119,10 +20016,10 @@
         <v>31</v>
       </c>
       <c r="C299" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D299" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -19169,8 +20066,11 @@
       <c r="S299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:19">
+      <c r="T299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" s="1">
         <v>858</v>
       </c>
@@ -19178,10 +20078,10 @@
         <v>30</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -19228,8 +20128,11 @@
       <c r="S300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:19">
+      <c r="T300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" s="1">
         <v>47</v>
       </c>
@@ -19237,10 +20140,10 @@
         <v>20</v>
       </c>
       <c r="C301" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D301" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -19287,8 +20190,11 @@
       <c r="S301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:19">
+      <c r="T301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
       <c r="A302" s="1">
         <v>345</v>
       </c>
@@ -19296,10 +20202,10 @@
         <v>26</v>
       </c>
       <c r="C302" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D302" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -19346,8 +20252,11 @@
       <c r="S302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:19">
+      <c r="T302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20">
       <c r="A303" s="1">
         <v>717</v>
       </c>
@@ -19355,10 +20264,10 @@
         <v>29</v>
       </c>
       <c r="C303" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D303" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -19405,8 +20314,11 @@
       <c r="S303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:19">
+      <c r="T303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20">
       <c r="A304" s="1">
         <v>861</v>
       </c>
@@ -19414,10 +20326,10 @@
         <v>30</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -19464,8 +20376,11 @@
       <c r="S304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:19">
+      <c r="T304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20">
       <c r="A305" s="1">
         <v>453</v>
       </c>
@@ -19473,10 +20388,10 @@
         <v>27</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -19523,8 +20438,11 @@
       <c r="S305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:19">
+      <c r="T305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20">
       <c r="A306" s="1">
         <v>983</v>
       </c>
@@ -19532,10 +20450,10 @@
         <v>31</v>
       </c>
       <c r="C306" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D306" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -19582,8 +20500,11 @@
       <c r="S306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:19">
+      <c r="T306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20">
       <c r="A307" s="1">
         <v>984</v>
       </c>
@@ -19591,10 +20512,10 @@
         <v>31</v>
       </c>
       <c r="C307" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D307" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -19641,8 +20562,11 @@
       <c r="S307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:19">
+      <c r="T307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20">
       <c r="A308" s="1">
         <v>1961</v>
       </c>
@@ -19650,10 +20574,10 @@
         <v>26</v>
       </c>
       <c r="C308" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D308" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -19700,8 +20624,11 @@
       <c r="S308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:19">
+      <c r="T308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20">
       <c r="A309" s="1">
         <v>622</v>
       </c>
@@ -19709,10 +20636,10 @@
         <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D309" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -19759,8 +20686,11 @@
       <c r="S309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:19">
+      <c r="T309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20">
       <c r="A310" s="1">
         <v>96</v>
       </c>
@@ -19768,10 +20698,10 @@
         <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D310" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -19818,8 +20748,11 @@
       <c r="S310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:19">
+      <c r="T310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20">
       <c r="A311" s="1">
         <v>718</v>
       </c>
@@ -19827,10 +20760,10 @@
         <v>29</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D311" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -19877,8 +20810,11 @@
       <c r="S311">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:19">
+      <c r="T311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20">
       <c r="A312" s="1">
         <v>986</v>
       </c>
@@ -19886,10 +20822,10 @@
         <v>31</v>
       </c>
       <c r="C312" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D312" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -19936,8 +20872,11 @@
       <c r="S312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:19">
+      <c r="T312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20">
       <c r="A313" s="1">
         <v>626</v>
       </c>
@@ -19945,10 +20884,10 @@
         <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D313" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -19995,8 +20934,11 @@
       <c r="S313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:19">
+      <c r="T313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20">
       <c r="A314" s="1">
         <v>285</v>
       </c>
@@ -20004,10 +20946,10 @@
         <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -20054,8 +20996,11 @@
       <c r="S314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:19">
+      <c r="T314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20">
       <c r="A315" s="1">
         <v>865</v>
       </c>
@@ -20063,10 +21008,10 @@
         <v>30</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D315" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -20113,8 +21058,11 @@
       <c r="S315">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:19">
+      <c r="T315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20">
       <c r="A316" s="1">
         <v>1949</v>
       </c>
@@ -20122,10 +21070,10 @@
         <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D316" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -20172,8 +21120,11 @@
       <c r="S316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:19">
+      <c r="T316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20">
       <c r="A317" s="1">
         <v>866</v>
       </c>
@@ -20181,10 +21132,10 @@
         <v>30</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D317" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -20231,8 +21182,11 @@
       <c r="S317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:19">
+      <c r="T317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20">
       <c r="A318" s="1">
         <v>867</v>
       </c>
@@ -20240,10 +21194,10 @@
         <v>30</v>
       </c>
       <c r="C318" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -20290,8 +21244,11 @@
       <c r="S318">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:19">
+      <c r="T318">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20">
       <c r="A319" s="1">
         <v>627</v>
       </c>
@@ -20299,10 +21256,10 @@
         <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D319" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -20349,8 +21306,11 @@
       <c r="S319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:19">
+      <c r="T319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20">
       <c r="A320" s="1">
         <v>289</v>
       </c>
@@ -20358,10 +21318,10 @@
         <v>25</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -20408,8 +21368,11 @@
       <c r="S320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:19">
+      <c r="T320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20">
       <c r="A321" s="1">
         <v>629</v>
       </c>
@@ -20417,10 +21380,10 @@
         <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D321" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -20467,8 +21430,11 @@
       <c r="S321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:19">
+      <c r="T321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20">
       <c r="A322" s="1">
         <v>852</v>
       </c>
@@ -20476,10 +21442,10 @@
         <v>27</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D322" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -20526,8 +21492,11 @@
       <c r="S322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:19">
+      <c r="T322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
       <c r="A323" s="1">
         <v>988</v>
       </c>
@@ -20535,10 +21504,10 @@
         <v>31</v>
       </c>
       <c r="C323" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D323" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -20585,8 +21554,11 @@
       <c r="S323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:19">
+      <c r="T323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20">
       <c r="A324" s="1">
         <v>457</v>
       </c>
@@ -20594,10 +21566,10 @@
         <v>27</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -20644,8 +21616,11 @@
       <c r="S324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:19">
+      <c r="T324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20">
       <c r="A325" s="1">
         <v>1960</v>
       </c>
@@ -20653,10 +21628,10 @@
         <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D325" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -20703,8 +21678,11 @@
       <c r="S325">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:19">
+      <c r="T325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20">
       <c r="A326" s="1">
         <v>668</v>
       </c>
@@ -20712,10 +21690,10 @@
         <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -20762,8 +21740,11 @@
       <c r="S326">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:19">
+      <c r="T326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20">
       <c r="A327" s="1">
         <v>1969</v>
       </c>
@@ -20771,10 +21752,10 @@
         <v>20</v>
       </c>
       <c r="C327" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D327" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -20821,8 +21802,11 @@
       <c r="S327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:19">
+      <c r="T327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20">
       <c r="A328" s="1">
         <v>1701</v>
       </c>
@@ -20830,10 +21814,10 @@
         <v>22</v>
       </c>
       <c r="C328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -20880,8 +21864,11 @@
       <c r="S328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:19">
+      <c r="T328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20">
       <c r="A329" s="1">
         <v>293</v>
       </c>
@@ -20889,10 +21876,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -20939,8 +21926,11 @@
       <c r="S329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:19">
+      <c r="T329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20">
       <c r="A330" s="1">
         <v>1950</v>
       </c>
@@ -20948,10 +21938,10 @@
         <v>20</v>
       </c>
       <c r="C330" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -20998,8 +21988,11 @@
       <c r="S330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:19">
+      <c r="T330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20">
       <c r="A331" s="1">
         <v>1783</v>
       </c>
@@ -21007,10 +22000,10 @@
         <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D331" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -21057,8 +22050,11 @@
       <c r="S331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:19">
+      <c r="T331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20">
       <c r="A332" s="1">
         <v>98</v>
       </c>
@@ -21066,10 +22062,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D332" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -21116,8 +22112,11 @@
       <c r="S332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:19">
+      <c r="T332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20">
       <c r="A333" s="1">
         <v>614</v>
       </c>
@@ -21125,10 +22124,10 @@
         <v>28</v>
       </c>
       <c r="C333" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D333" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -21175,8 +22174,11 @@
       <c r="S333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:19">
+      <c r="T333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20">
       <c r="A334" s="1">
         <v>189</v>
       </c>
@@ -21184,10 +22186,10 @@
         <v>23</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D334" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -21234,8 +22236,11 @@
       <c r="S334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:19">
+      <c r="T334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20">
       <c r="A335" s="1">
         <v>296</v>
       </c>
@@ -21243,10 +22248,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -21293,8 +22298,11 @@
       <c r="S335">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:19">
+      <c r="T335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20">
       <c r="A336" s="1">
         <v>1696</v>
       </c>
@@ -21302,10 +22310,10 @@
         <v>27</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D336" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -21352,8 +22360,11 @@
       <c r="S336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:19">
+      <c r="T336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20">
       <c r="A337" s="1">
         <v>352</v>
       </c>
@@ -21361,10 +22372,10 @@
         <v>26</v>
       </c>
       <c r="C337" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D337" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -21411,8 +22422,11 @@
       <c r="S337">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:19">
+      <c r="T337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20">
       <c r="A338" s="1">
         <v>294</v>
       </c>
@@ -21420,10 +22434,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D338" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -21470,8 +22484,11 @@
       <c r="S338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:19">
+      <c r="T338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20">
       <c r="A339" s="1">
         <v>873</v>
       </c>
@@ -21479,10 +22496,10 @@
         <v>30</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D339" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -21529,8 +22546,11 @@
       <c r="S339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:19">
+      <c r="T339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20">
       <c r="A340" s="1">
         <v>632</v>
       </c>
@@ -21538,10 +22558,10 @@
         <v>26</v>
       </c>
       <c r="C340" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D340" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -21588,8 +22608,11 @@
       <c r="S340">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:19">
+      <c r="T340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20">
       <c r="A341" s="1">
         <v>880</v>
       </c>
@@ -21597,10 +22620,10 @@
         <v>27</v>
       </c>
       <c r="C341" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -21647,8 +22670,11 @@
       <c r="S341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:19">
+      <c r="T341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20">
       <c r="A342" s="1">
         <v>351</v>
       </c>
@@ -21656,10 +22682,10 @@
         <v>26</v>
       </c>
       <c r="C342" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D342" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -21706,8 +22732,11 @@
       <c r="S342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:19">
+      <c r="T342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20">
       <c r="A343" s="1">
         <v>479</v>
       </c>
@@ -21715,10 +22744,10 @@
         <v>27</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D343" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -21765,8 +22794,11 @@
       <c r="S343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:19">
+      <c r="T343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20">
       <c r="A344" s="1">
         <v>297</v>
       </c>
@@ -21774,10 +22806,10 @@
         <v>25</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D344" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -21824,8 +22856,11 @@
       <c r="S344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:19">
+      <c r="T344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20">
       <c r="A345" s="1">
         <v>473</v>
       </c>
@@ -21833,10 +22868,10 @@
         <v>27</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D345" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -21883,8 +22918,11 @@
       <c r="S345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:19">
+      <c r="T345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20">
       <c r="A346" s="1">
         <v>50</v>
       </c>
@@ -21892,10 +22930,10 @@
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D346" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -21942,8 +22980,11 @@
       <c r="S346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:19">
+      <c r="T346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20">
       <c r="A347" s="1">
         <v>355</v>
       </c>
@@ -21951,10 +22992,10 @@
         <v>26</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D347" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -22001,8 +23042,11 @@
       <c r="S347">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:19">
+      <c r="T347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20">
       <c r="A348" s="1">
         <v>299</v>
       </c>
@@ -22010,10 +23054,10 @@
         <v>25</v>
       </c>
       <c r="C348" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -22060,8 +23104,11 @@
       <c r="S348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:19">
+      <c r="T348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20">
       <c r="A349" s="1">
         <v>637</v>
       </c>
@@ -22069,10 +23116,10 @@
         <v>28</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D349" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -22119,8 +23166,11 @@
       <c r="S349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:19">
+      <c r="T349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20">
       <c r="A350" s="1">
         <v>638</v>
       </c>
@@ -22128,10 +23178,10 @@
         <v>28</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -22178,8 +23228,11 @@
       <c r="S350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:19">
+      <c r="T350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20">
       <c r="A351" s="1">
         <v>1892</v>
       </c>
@@ -22187,10 +23240,10 @@
         <v>28</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D351" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -22237,8 +23290,11 @@
       <c r="S351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:19">
+      <c r="T351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20">
       <c r="A352" s="1">
         <v>879</v>
       </c>
@@ -22246,10 +23302,10 @@
         <v>30</v>
       </c>
       <c r="C352" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -22296,8 +23352,11 @@
       <c r="S352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:19">
+      <c r="T352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20">
       <c r="A353" s="1">
         <v>301</v>
       </c>
@@ -22305,10 +23364,10 @@
         <v>25</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -22355,8 +23414,11 @@
       <c r="S353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:19">
+      <c r="T353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20">
       <c r="A354" s="1">
         <v>1896</v>
       </c>
@@ -22364,10 +23426,10 @@
         <v>23</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D354" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -22414,8 +23476,11 @@
       <c r="S354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:19">
+      <c r="T354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20">
       <c r="A355" s="1">
         <v>642</v>
       </c>
@@ -22423,10 +23488,10 @@
         <v>28</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D355" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -22473,8 +23538,11 @@
       <c r="S355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:19">
+      <c r="T355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20">
       <c r="A356" s="1">
         <v>193</v>
       </c>
@@ -22482,10 +23550,10 @@
         <v>23</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D356" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -22530,6 +23598,9 @@
         <v>2</v>
       </c>
       <c r="S356">
+        <v>2</v>
+      </c>
+      <c r="T356">
         <v>2</v>
       </c>
     </row>
